--- a/Tesis/Resultados/Escalon/AP/ACOSTADO_Izquierdo_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/AP/ACOSTADO_Izquierdo_layer_0.xlsx
@@ -31,172 +31,172 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.3695097863674164]</t>
-  </si>
-  <si>
-    <t>[-0.012276248075067997]</t>
-  </si>
-  <si>
-    <t>[-0.19034627079963684]</t>
-  </si>
-  <si>
-    <t>[-0.39884305000305176]</t>
-  </si>
-  <si>
-    <t>[0.2706056535243988]</t>
-  </si>
-  <si>
-    <t>[0.3140067756175995]</t>
-  </si>
-  <si>
-    <t>[-0.2815810739994049]</t>
-  </si>
-  <si>
-    <t>[0.15109986066818237]</t>
-  </si>
-  <si>
-    <t>[0.4212494492530823]</t>
-  </si>
-  <si>
-    <t>[0.10197655856609344]</t>
-  </si>
-  <si>
-    <t>[-0.16104133427143097]</t>
-  </si>
-  <si>
-    <t>[0.007307395804673433]</t>
-  </si>
-  <si>
-    <t>[-0.2403663843870163]</t>
-  </si>
-  <si>
-    <t>[0.14529190957546234]</t>
-  </si>
-  <si>
-    <t>[0.4424285888671875]</t>
-  </si>
-  <si>
-    <t>[0.39346250891685486]</t>
-  </si>
-  <si>
-    <t>[0.4522849917411804]</t>
-  </si>
-  <si>
-    <t>[0.2459808588027954]</t>
-  </si>
-  <si>
-    <t>[0.41132164001464844]</t>
-  </si>
-  <si>
-    <t>[0.28805282711982727]</t>
-  </si>
-  <si>
-    <t>[0.16132788360118866]</t>
-  </si>
-  <si>
-    <t>[0.3831588625907898]</t>
-  </si>
-  <si>
-    <t>[-0.35730308294296265]</t>
-  </si>
-  <si>
-    <t>[-0.25407811999320984]</t>
-  </si>
-  <si>
-    <t>[-0.3852563798427582]</t>
-  </si>
-  <si>
-    <t>[0.3838188350200653]</t>
-  </si>
-  <si>
-    <t>[0.14967776834964752]</t>
-  </si>
-  <si>
-    <t>[-0.22907455265522003]</t>
-  </si>
-  <si>
-    <t>[0.20878133177757263]</t>
-  </si>
-  <si>
-    <t>[0.12607672810554504]</t>
-  </si>
-  <si>
-    <t>[0.2602614462375641]</t>
-  </si>
-  <si>
-    <t>[0.3299282491207123]</t>
-  </si>
-  <si>
-    <t>[0.2668103873729706]</t>
-  </si>
-  <si>
-    <t>[-0.08909501135349274]</t>
-  </si>
-  <si>
-    <t>[-0.25130796432495117]</t>
-  </si>
-  <si>
-    <t>[-0.13163477182388306]</t>
-  </si>
-  <si>
-    <t>[-0.2983674108982086]</t>
-  </si>
-  <si>
-    <t>[0.08171132206916809]</t>
-  </si>
-  <si>
-    <t>[0.41280847787857056]</t>
-  </si>
-  <si>
-    <t>[0.24890846014022827]</t>
-  </si>
-  <si>
-    <t>[0.2378862202167511]</t>
-  </si>
-  <si>
-    <t>[0.0021478943526744843]</t>
-  </si>
-  <si>
-    <t>[0.23126819729804993]</t>
-  </si>
-  <si>
-    <t>[0.08824938535690308]</t>
-  </si>
-  <si>
-    <t>[0.0992831140756607]</t>
-  </si>
-  <si>
-    <t>[0.22644414007663727]</t>
-  </si>
-  <si>
-    <t>[0.3118748664855957]</t>
-  </si>
-  <si>
-    <t>[0.16205494105815887]</t>
-  </si>
-  <si>
-    <t>[0.31152865290641785]</t>
-  </si>
-  <si>
-    <t>[0.2430940717458725]</t>
-  </si>
-  <si>
-    <t>[-0.27148786187171936]</t>
-  </si>
-  <si>
-    <t>[0.37518057227134705]</t>
-  </si>
-  <si>
-    <t>[-0.37030431628227234]</t>
-  </si>
-  <si>
-    <t>[-0.13945060968399048]</t>
-  </si>
-  <si>
-    <t>[0.41023027896881104]</t>
-  </si>
-  <si>
-    <t>[-0.10891161859035492]</t>
+    <t>[0.4110960066318512]</t>
+  </si>
+  <si>
+    <t>[-0.20930248498916626]</t>
+  </si>
+  <si>
+    <t>[-0.21121039986610413]</t>
+  </si>
+  <si>
+    <t>[-0.0019221595721319318]</t>
+  </si>
+  <si>
+    <t>[-0.3078622817993164]</t>
+  </si>
+  <si>
+    <t>[-0.002301529049873352]</t>
+  </si>
+  <si>
+    <t>[0.19006061553955078]</t>
+  </si>
+  <si>
+    <t>[0.18581710755825043]</t>
+  </si>
+  <si>
+    <t>[-0.2968699336051941]</t>
+  </si>
+  <si>
+    <t>[0.3637809455394745]</t>
+  </si>
+  <si>
+    <t>[-0.276582807302475]</t>
+  </si>
+  <si>
+    <t>[-0.23211678862571716]</t>
+  </si>
+  <si>
+    <t>[0.11303586512804031]</t>
+  </si>
+  <si>
+    <t>[0.28686434030532837]</t>
+  </si>
+  <si>
+    <t>[0.3880983591079712]</t>
+  </si>
+  <si>
+    <t>[-0.26201191544532776]</t>
+  </si>
+  <si>
+    <t>[-0.2320934236049652]</t>
+  </si>
+  <si>
+    <t>[0.005338806658983231]</t>
+  </si>
+  <si>
+    <t>[0.32460835576057434]</t>
+  </si>
+  <si>
+    <t>[0.2602408528327942]</t>
+  </si>
+  <si>
+    <t>[-0.2968585789203644]</t>
+  </si>
+  <si>
+    <t>[0.3565579056739807]</t>
+  </si>
+  <si>
+    <t>[-0.40957215428352356]</t>
+  </si>
+  <si>
+    <t>[-0.3484805226325989]</t>
+  </si>
+  <si>
+    <t>[0.42445632815361023]</t>
+  </si>
+  <si>
+    <t>[0.13920079171657562]</t>
+  </si>
+  <si>
+    <t>[0.2057446837425232]</t>
+  </si>
+  <si>
+    <t>[0.3643646836280823]</t>
+  </si>
+  <si>
+    <t>[-0.26104021072387695]</t>
+  </si>
+  <si>
+    <t>[0.40085577964782715]</t>
+  </si>
+  <si>
+    <t>[0.22963692247867584]</t>
+  </si>
+  <si>
+    <t>[-0.33041051030158997]</t>
+  </si>
+  <si>
+    <t>[0.22350795567035675]</t>
+  </si>
+  <si>
+    <t>[-0.04727853834629059]</t>
+  </si>
+  <si>
+    <t>[-0.33614036440849304]</t>
+  </si>
+  <si>
+    <t>[-0.22394849359989166]</t>
+  </si>
+  <si>
+    <t>[-0.35046863555908203]</t>
+  </si>
+  <si>
+    <t>[-0.029302213340997696]</t>
+  </si>
+  <si>
+    <t>[-0.17302390933036804]</t>
+  </si>
+  <si>
+    <t>[0.1165020540356636]</t>
+  </si>
+  <si>
+    <t>[0.4034576117992401]</t>
+  </si>
+  <si>
+    <t>[-0.11120536923408508]</t>
+  </si>
+  <si>
+    <t>[0.3829725682735443]</t>
+  </si>
+  <si>
+    <t>[0.3970213234424591]</t>
+  </si>
+  <si>
+    <t>[0.3097763955593109]</t>
+  </si>
+  <si>
+    <t>[-0.14593684673309326]</t>
+  </si>
+  <si>
+    <t>[0.48402854800224304]</t>
+  </si>
+  <si>
+    <t>[0.20091784000396729]</t>
+  </si>
+  <si>
+    <t>[0.4132837951183319]</t>
+  </si>
+  <si>
+    <t>[-0.04133951663970947]</t>
+  </si>
+  <si>
+    <t>[0.2721560597419739]</t>
+  </si>
+  <si>
+    <t>[0.31059426069259644]</t>
+  </si>
+  <si>
+    <t>[-0.16647039353847504]</t>
+  </si>
+  <si>
+    <t>[-0.0668037161231041]</t>
+  </si>
+  <si>
+    <t>[0.3569909632205963]</t>
+  </si>
+  <si>
+    <t>[-0.2505122125148773]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -211,2356 +211,2356 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.1337360292673111]</t>
-  </si>
-  <si>
-    <t>[0.06041182577610016]</t>
-  </si>
-  <si>
-    <t>[0.3619759976863861]</t>
-  </si>
-  <si>
-    <t>[-0.2910279333591461]</t>
-  </si>
-  <si>
-    <t>[-0.11652641743421555]</t>
-  </si>
-  <si>
-    <t>[0.09122563153505325]</t>
-  </si>
-  <si>
-    <t>[0.027240952476859093]</t>
-  </si>
-  <si>
-    <t>[-0.07982239127159119]</t>
-  </si>
-  <si>
-    <t>[-0.18529798090457916]</t>
-  </si>
-  <si>
-    <t>[-0.15754126012325287]</t>
-  </si>
-  <si>
-    <t>[-0.03720621392130852]</t>
-  </si>
-  <si>
-    <t>[-0.10246773809194565]</t>
-  </si>
-  <si>
-    <t>[0.23305821418762207]</t>
-  </si>
-  <si>
-    <t>[0.0467710942029953]</t>
-  </si>
-  <si>
-    <t>[-0.07875233143568039]</t>
-  </si>
-  <si>
-    <t>[0.1998753696680069]</t>
-  </si>
-  <si>
-    <t>[-0.2785067558288574]</t>
-  </si>
-  <si>
-    <t>[-0.037761665880680084]</t>
-  </si>
-  <si>
-    <t>[0.035636819899082184]</t>
-  </si>
-  <si>
-    <t>[-0.0639462023973465]</t>
-  </si>
-  <si>
-    <t>[-0.12593397498130798]</t>
-  </si>
-  <si>
-    <t>[-0.026563996449112892]</t>
-  </si>
-  <si>
-    <t>[0.19717177748680115]</t>
-  </si>
-  <si>
-    <t>[0.14979861676692963]</t>
-  </si>
-  <si>
-    <t>[-0.006109629757702351]</t>
-  </si>
-  <si>
-    <t>[-0.3320605158805847]</t>
-  </si>
-  <si>
-    <t>[-0.10926553606987]</t>
-  </si>
-  <si>
-    <t>[0.04878288879990578]</t>
-  </si>
-  <si>
-    <t>[-0.009255796670913696]</t>
-  </si>
-  <si>
-    <t>[-0.1726195365190506]</t>
-  </si>
-  <si>
-    <t>[0.09138235449790955]</t>
-  </si>
-  <si>
-    <t>[0.06309444457292557]</t>
-  </si>
-  <si>
-    <t>[-0.06145457550883293]</t>
-  </si>
-  <si>
-    <t>[-0.18173202872276306]</t>
-  </si>
-  <si>
-    <t>[0.025724323466420174]</t>
-  </si>
-  <si>
-    <t>[0.034224189817905426]</t>
-  </si>
-  <si>
-    <t>[-0.0057859583757817745]</t>
-  </si>
-  <si>
-    <t>[-0.03601217269897461]</t>
-  </si>
-  <si>
-    <t>[-0.14584462344646454]</t>
-  </si>
-  <si>
-    <t>[0.04291454330086708]</t>
-  </si>
-  <si>
-    <t>[-0.043476320803165436]</t>
-  </si>
-  <si>
-    <t>[-0.1753307729959488]</t>
-  </si>
-  <si>
-    <t>[0.09027737379074097]</t>
-  </si>
-  <si>
-    <t>[-0.14010730385780334]</t>
-  </si>
-  <si>
-    <t>[-0.17007867991924286]</t>
-  </si>
-  <si>
-    <t>[-0.26861846446990967]</t>
-  </si>
-  <si>
-    <t>[-0.009241174906492233]</t>
-  </si>
-  <si>
-    <t>[-0.26694396138191223]</t>
-  </si>
-  <si>
-    <t>[-0.09655489027500153]</t>
-  </si>
-  <si>
-    <t>[-0.1080082580447197]</t>
-  </si>
-  <si>
-    <t>[0.2849061191082001]</t>
-  </si>
-  <si>
-    <t>[0.020154697820544243]</t>
-  </si>
-  <si>
-    <t>[-0.0471026785671711]</t>
-  </si>
-  <si>
-    <t>[-0.2539083957672119]</t>
-  </si>
-  <si>
-    <t>[-0.18590408563613892]</t>
-  </si>
-  <si>
-    <t>[0.2081705778837204]</t>
-  </si>
-  <si>
-    <t>[0.1403217315673828]</t>
-  </si>
-  <si>
-    <t>[0.09948082268238068]</t>
-  </si>
-  <si>
-    <t>[-0.008368979208171368]</t>
-  </si>
-  <si>
-    <t>[0.24389414489269257]</t>
-  </si>
-  <si>
-    <t>[-0.1977318972349167]</t>
-  </si>
-  <si>
-    <t>[0.07062530517578125]</t>
-  </si>
-  <si>
-    <t>[0.0590803399682045]</t>
-  </si>
-  <si>
-    <t>[-0.06972633302211761]</t>
-  </si>
-  <si>
-    <t>[-0.05170779675245285]</t>
-  </si>
-  <si>
-    <t>[0.10566920042037964]</t>
-  </si>
-  <si>
-    <t>[0.0434097945690155]</t>
-  </si>
-  <si>
-    <t>[0.12862950563430786]</t>
-  </si>
-  <si>
-    <t>[0.12904125452041626]</t>
-  </si>
-  <si>
-    <t>[0.0825866088271141]</t>
-  </si>
-  <si>
-    <t>[-0.13330768048763275]</t>
-  </si>
-  <si>
-    <t>[0.08143234252929688]</t>
-  </si>
-  <si>
-    <t>[-0.22171859443187714]</t>
-  </si>
-  <si>
-    <t>[0.183547243475914]</t>
-  </si>
-  <si>
-    <t>[-0.03856492415070534]</t>
-  </si>
-  <si>
-    <t>[-0.027520328760147095]</t>
-  </si>
-  <si>
-    <t>[0.038929782807826996]</t>
-  </si>
-  <si>
-    <t>[0.1637382209300995]</t>
-  </si>
-  <si>
-    <t>[0.0677080750465393]</t>
-  </si>
-  <si>
-    <t>[0.12407729774713516]</t>
-  </si>
-  <si>
-    <t>[0.11481838673353195]</t>
-  </si>
-  <si>
-    <t>[-0.12275326997041702]</t>
-  </si>
-  <si>
-    <t>[-0.09165097773075104]</t>
-  </si>
-  <si>
-    <t>[0.1101759672164917]</t>
-  </si>
-  <si>
-    <t>[-0.03898508474230766]</t>
-  </si>
-  <si>
-    <t>[-0.03910969942808151]</t>
-  </si>
-  <si>
-    <t>[-0.011596016585826874]</t>
-  </si>
-  <si>
-    <t>[-0.23584625124931335]</t>
-  </si>
-  <si>
-    <t>[0.013285412453114986]</t>
-  </si>
-  <si>
-    <t>[-0.050921522080898285]</t>
-  </si>
-  <si>
-    <t>[0.14742453396320343]</t>
-  </si>
-  <si>
-    <t>[0.04873383417725563]</t>
-  </si>
-  <si>
-    <t>[-0.22411592304706573]</t>
-  </si>
-  <si>
-    <t>[-0.281362384557724]</t>
-  </si>
-  <si>
-    <t>[-0.259640634059906]</t>
-  </si>
-  <si>
-    <t>[0.03635916858911514]</t>
-  </si>
-  <si>
-    <t>[-0.3073072135448456]</t>
-  </si>
-  <si>
-    <t>[-0.11138039082288742]</t>
-  </si>
-  <si>
-    <t>[-0.017809782177209854]</t>
-  </si>
-  <si>
-    <t>[-0.029249126091599464]</t>
-  </si>
-  <si>
-    <t>[0.20570997893810272]</t>
-  </si>
-  <si>
-    <t>[-0.07028084993362427]</t>
-  </si>
-  <si>
-    <t>[-0.2506408393383026]</t>
-  </si>
-  <si>
-    <t>[0.020785968750715256]</t>
-  </si>
-  <si>
-    <t>[0.24686695635318756]</t>
-  </si>
-  <si>
-    <t>[0.24136579036712646]</t>
-  </si>
-  <si>
-    <t>[0.07188080251216888]</t>
-  </si>
-  <si>
-    <t>[0.009561200626194477]</t>
-  </si>
-  <si>
-    <t>[0.26307928562164307]</t>
-  </si>
-  <si>
-    <t>[-0.1009497344493866]</t>
-  </si>
-  <si>
-    <t>[-0.20784583687782288]</t>
-  </si>
-  <si>
-    <t>[-0.038968004286289215]</t>
-  </si>
-  <si>
-    <t>[-0.23039212822914124]</t>
-  </si>
-  <si>
-    <t>[0.14012591540813446]</t>
-  </si>
-  <si>
-    <t>[-0.25870180130004883]</t>
-  </si>
-  <si>
-    <t>[-0.06256292015314102]</t>
-  </si>
-  <si>
-    <t>[0.05268071964383125]</t>
-  </si>
-  <si>
-    <t>[-0.19903023540973663]</t>
-  </si>
-  <si>
-    <t>[-0.084720678627491]</t>
-  </si>
-  <si>
-    <t>[-0.058378905057907104]</t>
-  </si>
-  <si>
-    <t>[0.010761587880551815]</t>
-  </si>
-  <si>
-    <t>[0.19784124195575714]</t>
-  </si>
-  <si>
-    <t>[0.004343344364315271]</t>
-  </si>
-  <si>
-    <t>[-0.16201744973659515]</t>
-  </si>
-  <si>
-    <t>[-0.08638028800487518]</t>
-  </si>
-  <si>
-    <t>[0.1436351090669632]</t>
-  </si>
-  <si>
-    <t>[0.0437273308634758]</t>
-  </si>
-  <si>
-    <t>[-0.1052541509270668]</t>
-  </si>
-  <si>
-    <t>[0.26230716705322266]</t>
-  </si>
-  <si>
-    <t>[0.39740827679634094]</t>
-  </si>
-  <si>
-    <t>[-0.05663960054516792]</t>
-  </si>
-  <si>
-    <t>[0.05511957406997681]</t>
-  </si>
-  <si>
-    <t>[-0.07445023208856583]</t>
-  </si>
-  <si>
-    <t>[0.21253736317157745]</t>
-  </si>
-  <si>
-    <t>[0.012794209644198418]</t>
-  </si>
-  <si>
-    <t>[-0.19193485379219055]</t>
-  </si>
-  <si>
-    <t>[-0.11285436898469925]</t>
-  </si>
-  <si>
-    <t>[-0.2505548894405365]</t>
-  </si>
-  <si>
-    <t>[-0.05169534683227539]</t>
-  </si>
-  <si>
-    <t>[0.0525587797164917]</t>
-  </si>
-  <si>
-    <t>[0.2845054864883423]</t>
-  </si>
-  <si>
-    <t>[0.25811782479286194]</t>
-  </si>
-  <si>
-    <t>[0.19272474944591522]</t>
-  </si>
-  <si>
-    <t>[0.019937995821237564]</t>
-  </si>
-  <si>
-    <t>[-0.09005772322416306]</t>
-  </si>
-  <si>
-    <t>[0.03488616272807121]</t>
-  </si>
-  <si>
-    <t>[-0.21219895780086517]</t>
-  </si>
-  <si>
-    <t>[-0.17015157639980316]</t>
-  </si>
-  <si>
-    <t>[-0.03468269482254982]</t>
-  </si>
-  <si>
-    <t>[0.2987590730190277]</t>
-  </si>
-  <si>
-    <t>[0.1274542361497879]</t>
-  </si>
-  <si>
-    <t>[-0.04342935234308243]</t>
-  </si>
-  <si>
-    <t>[0.1864762008190155]</t>
-  </si>
-  <si>
-    <t>[0.022048763930797577]</t>
-  </si>
-  <si>
-    <t>[0.09796080738306046]</t>
-  </si>
-  <si>
-    <t>[0.14200174808502197]</t>
-  </si>
-  <si>
-    <t>[0.020328179001808167]</t>
-  </si>
-  <si>
-    <t>[0.04503524303436279]</t>
-  </si>
-  <si>
-    <t>[-0.12098444253206253]</t>
-  </si>
-  <si>
-    <t>[0.060303524136543274]</t>
-  </si>
-  <si>
-    <t>[0.1958167403936386]</t>
-  </si>
-  <si>
-    <t>[0.022832736372947693]</t>
-  </si>
-  <si>
-    <t>[-0.08649606257677078]</t>
-  </si>
-  <si>
-    <t>[0.10897818207740784]</t>
-  </si>
-  <si>
-    <t>[-0.003296538721770048]</t>
-  </si>
-  <si>
-    <t>[0.2605803608894348]</t>
-  </si>
-  <si>
-    <t>[0.05350023880600929]</t>
-  </si>
-  <si>
-    <t>[-0.0001065606702468358]</t>
-  </si>
-  <si>
-    <t>[-0.1991237998008728]</t>
-  </si>
-  <si>
-    <t>[0.22344453632831573]</t>
-  </si>
-  <si>
-    <t>[0.15182825922966003]</t>
-  </si>
-  <si>
-    <t>[-0.055447597056627274]</t>
-  </si>
-  <si>
-    <t>[-0.0014308784157037735]</t>
-  </si>
-  <si>
-    <t>[-0.10895535349845886]</t>
-  </si>
-  <si>
-    <t>[-0.05757403373718262]</t>
-  </si>
-  <si>
-    <t>[0.10620661079883575]</t>
-  </si>
-  <si>
-    <t>[0.1324869841337204]</t>
-  </si>
-  <si>
-    <t>[-0.10986370593309402]</t>
-  </si>
-  <si>
-    <t>[-0.010665100067853928]</t>
-  </si>
-  <si>
-    <t>[0.02374202013015747]</t>
-  </si>
-  <si>
-    <t>[0.009666566736996174]</t>
-  </si>
-  <si>
-    <t>[-0.07548299431800842]</t>
-  </si>
-  <si>
-    <t>[-0.10425534844398499]</t>
-  </si>
-  <si>
-    <t>[0.09107576310634613]</t>
-  </si>
-  <si>
-    <t>[0.13529208302497864]</t>
-  </si>
-  <si>
-    <t>[-0.08947423845529556]</t>
-  </si>
-  <si>
-    <t>[0.04078007861971855]</t>
-  </si>
-  <si>
-    <t>[0.0916338786482811]</t>
-  </si>
-  <si>
-    <t>[0.007363179698586464]</t>
-  </si>
-  <si>
-    <t>[0.28793445229530334]</t>
-  </si>
-  <si>
-    <t>[-0.13100358843803406]</t>
-  </si>
-  <si>
-    <t>[0.3335498571395874]</t>
-  </si>
-  <si>
-    <t>[0.2326694279909134]</t>
-  </si>
-  <si>
-    <t>[0.19082288444042206]</t>
-  </si>
-  <si>
-    <t>[0.024710025638341904]</t>
-  </si>
-  <si>
-    <t>[0.08472522348165512]</t>
-  </si>
-  <si>
-    <t>[-0.03087451122701168]</t>
-  </si>
-  <si>
-    <t>[-0.1334824562072754]</t>
-  </si>
-  <si>
-    <t>[-0.082904152572155]</t>
-  </si>
-  <si>
-    <t>[0.17346501350402832]</t>
-  </si>
-  <si>
-    <t>[0.10961242765188217]</t>
-  </si>
-  <si>
-    <t>[-0.12795153260231018]</t>
-  </si>
-  <si>
-    <t>[0.0786619707942009]</t>
-  </si>
-  <si>
-    <t>[0.07576288282871246]</t>
-  </si>
-  <si>
-    <t>[0.1748359650373459]</t>
-  </si>
-  <si>
-    <t>[-0.08622390776872635]</t>
-  </si>
-  <si>
-    <t>[-0.13319648802280426]</t>
-  </si>
-  <si>
-    <t>[-0.16766893863677979]</t>
-  </si>
-  <si>
-    <t>[0.060011282563209534]</t>
-  </si>
-  <si>
-    <t>[-0.006031930912286043]</t>
-  </si>
-  <si>
-    <t>[-0.1818338930606842]</t>
-  </si>
-  <si>
-    <t>[-0.19495254755020142]</t>
-  </si>
-  <si>
-    <t>[-0.20039604604244232]</t>
-  </si>
-  <si>
-    <t>[-0.1272091269493103]</t>
-  </si>
-  <si>
-    <t>[-0.029190128669142723]</t>
-  </si>
-  <si>
-    <t>[0.1369791179895401]</t>
-  </si>
-  <si>
-    <t>[0.11592563986778259]</t>
-  </si>
-  <si>
-    <t>[0.07032997906208038]</t>
-  </si>
-  <si>
-    <t>[-0.044040411710739136]</t>
-  </si>
-  <si>
-    <t>[0.07662053406238556]</t>
-  </si>
-  <si>
-    <t>[0.27969831228256226]</t>
-  </si>
-  <si>
-    <t>[0.052478402853012085]</t>
-  </si>
-  <si>
-    <t>[-0.0921337828040123]</t>
-  </si>
-  <si>
-    <t>[0.09792304039001465]</t>
-  </si>
-  <si>
-    <t>[-0.025260362774133682]</t>
-  </si>
-  <si>
-    <t>[0.2216908484697342]</t>
-  </si>
-  <si>
-    <t>[-0.2164318710565567]</t>
-  </si>
-  <si>
-    <t>[-0.023145832121372223]</t>
-  </si>
-  <si>
-    <t>[0.0010676041711121798]</t>
-  </si>
-  <si>
-    <t>[0.19260425865650177]</t>
-  </si>
-  <si>
-    <t>[-0.1188860759139061]</t>
-  </si>
-  <si>
-    <t>[0.07920465618371964]</t>
-  </si>
-  <si>
-    <t>[-0.13032300770282745]</t>
-  </si>
-  <si>
-    <t>[-0.04936666786670685]</t>
-  </si>
-  <si>
-    <t>[-0.05197746679186821]</t>
-  </si>
-  <si>
-    <t>[0.3983962833881378]</t>
-  </si>
-  <si>
-    <t>[-0.25368306040763855]</t>
-  </si>
-  <si>
-    <t>[0.3485555648803711]</t>
-  </si>
-  <si>
-    <t>[0.03263884782791138]</t>
-  </si>
-  <si>
-    <t>[0.062240682542324066]</t>
-  </si>
-  <si>
-    <t>[0.20985917747020721]</t>
-  </si>
-  <si>
-    <t>[0.08441780507564545]</t>
-  </si>
-  <si>
-    <t>[0.2762506306171417]</t>
-  </si>
-  <si>
-    <t>[0.048205967992544174]</t>
-  </si>
-  <si>
-    <t>[-0.03811604529619217]</t>
-  </si>
-  <si>
-    <t>[0.004605178255587816]</t>
-  </si>
-  <si>
-    <t>[-0.23112182319164276]</t>
-  </si>
-  <si>
-    <t>[-0.1220109611749649]</t>
-  </si>
-  <si>
-    <t>[0.12086300551891327]</t>
-  </si>
-  <si>
-    <t>[-0.03173955902457237]</t>
-  </si>
-  <si>
-    <t>[0.23902952671051025]</t>
-  </si>
-  <si>
-    <t>[0.12263277918100357]</t>
-  </si>
-  <si>
-    <t>[0.12117324024438858]</t>
-  </si>
-  <si>
-    <t>[-0.08510632812976837]</t>
-  </si>
-  <si>
-    <t>[0.010318640619516373]</t>
-  </si>
-  <si>
-    <t>[0.04314057528972626]</t>
-  </si>
-  <si>
-    <t>[0.051211610436439514]</t>
-  </si>
-  <si>
-    <t>[0.22549200057983398]</t>
-  </si>
-  <si>
-    <t>[-0.18343007564544678]</t>
-  </si>
-  <si>
-    <t>[0.0622488297522068]</t>
-  </si>
-  <si>
-    <t>[-0.17021280527114868]</t>
-  </si>
-  <si>
-    <t>[0.06297331303358078]</t>
-  </si>
-  <si>
-    <t>[-0.05718906968832016]</t>
-  </si>
-  <si>
-    <t>[-0.09627516567707062]</t>
-  </si>
-  <si>
-    <t>[0.2414756715297699]</t>
-  </si>
-  <si>
-    <t>[0.02489781752228737]</t>
-  </si>
-  <si>
-    <t>[0.29121094942092896]</t>
-  </si>
-  <si>
-    <t>[0.26274779438972473]</t>
-  </si>
-  <si>
-    <t>[0.11460942029953003]</t>
-  </si>
-  <si>
-    <t>[0.1187073141336441]</t>
-  </si>
-  <si>
-    <t>[0.05800558626651764]</t>
-  </si>
-  <si>
-    <t>[0.039177101105451584]</t>
-  </si>
-  <si>
-    <t>[-0.07507727295160294]</t>
-  </si>
-  <si>
-    <t>[-0.07400703430175781]</t>
-  </si>
-  <si>
-    <t>[-0.07938659191131592]</t>
-  </si>
-  <si>
-    <t>[-0.023829512298107147]</t>
-  </si>
-  <si>
-    <t>[-0.13633278012275696]</t>
-  </si>
-  <si>
-    <t>[0.03550837188959122]</t>
-  </si>
-  <si>
-    <t>[0.23097236454486847]</t>
-  </si>
-  <si>
-    <t>[0.22961381077766418]</t>
-  </si>
-  <si>
-    <t>[-0.09730467200279236]</t>
-  </si>
-  <si>
-    <t>[0.3585222661495209]</t>
-  </si>
-  <si>
-    <t>[-0.10740607976913452]</t>
-  </si>
-  <si>
-    <t>[-0.06110789626836777]</t>
-  </si>
-  <si>
-    <t>[0.14818799495697021]</t>
-  </si>
-  <si>
-    <t>[-0.11892378330230713]</t>
-  </si>
-  <si>
-    <t>[-0.13101068139076233]</t>
-  </si>
-  <si>
-    <t>[-0.19354847073554993]</t>
-  </si>
-  <si>
-    <t>[0.08782009780406952]</t>
-  </si>
-  <si>
-    <t>[-0.04815390333533287]</t>
-  </si>
-  <si>
-    <t>[-0.0858398899435997]</t>
-  </si>
-  <si>
-    <t>[0.016809973865747452]</t>
-  </si>
-  <si>
-    <t>[-0.0936012715101242]</t>
-  </si>
-  <si>
-    <t>[-0.06251980364322662]</t>
-  </si>
-  <si>
-    <t>[0.02705388516187668]</t>
-  </si>
-  <si>
-    <t>[-0.17690108716487885]</t>
-  </si>
-  <si>
-    <t>[0.12566211819648743]</t>
-  </si>
-  <si>
-    <t>[0.0004575994680635631]</t>
-  </si>
-  <si>
-    <t>[0.15001967549324036]</t>
-  </si>
-  <si>
-    <t>[-0.07776901870965958]</t>
-  </si>
-  <si>
-    <t>[-0.08684694766998291]</t>
-  </si>
-  <si>
-    <t>[-0.2094009816646576]</t>
-  </si>
-  <si>
-    <t>[0.1729627251625061]</t>
-  </si>
-  <si>
-    <t>[-0.011091195978224277]</t>
-  </si>
-  <si>
-    <t>[0.10700494796037674]</t>
-  </si>
-  <si>
-    <t>[0.10550057142972946]</t>
-  </si>
-  <si>
-    <t>[-0.03755545616149902]</t>
-  </si>
-  <si>
-    <t>[0.23219044506549835]</t>
-  </si>
-  <si>
-    <t>[0.3888032138347626]</t>
-  </si>
-  <si>
-    <t>[0.11082614958286285]</t>
-  </si>
-  <si>
-    <t>[0.04180723801255226]</t>
-  </si>
-  <si>
-    <t>[0.05477448180317879]</t>
-  </si>
-  <si>
-    <t>[0.05760868266224861]</t>
-  </si>
-  <si>
-    <t>[0.06715818494558334]</t>
-  </si>
-  <si>
-    <t>[0.07632053643465042]</t>
-  </si>
-  <si>
-    <t>[-0.0903172716498375]</t>
-  </si>
-  <si>
-    <t>[-0.20177260041236877]</t>
-  </si>
-  <si>
-    <t>[-0.05148577317595482]</t>
-  </si>
-  <si>
-    <t>[-0.05794895067811012]</t>
-  </si>
-  <si>
-    <t>[0.10367652028799057]</t>
-  </si>
-  <si>
-    <t>[0.22610311210155487]</t>
-  </si>
-  <si>
-    <t>[0.3048001229763031]</t>
-  </si>
-  <si>
-    <t>[-0.13684815168380737]</t>
-  </si>
-  <si>
-    <t>[-0.02417614310979843]</t>
-  </si>
-  <si>
-    <t>[0.22798630595207214]</t>
-  </si>
-  <si>
-    <t>[0.17054857313632965]</t>
-  </si>
-  <si>
-    <t>[0.17992159724235535]</t>
-  </si>
-  <si>
-    <t>[-0.23778919875621796]</t>
-  </si>
-  <si>
-    <t>[0.12795788049697876]</t>
-  </si>
-  <si>
-    <t>[-0.004443769343197346]</t>
-  </si>
-  <si>
-    <t>[-0.17089249193668365]</t>
-  </si>
-  <si>
-    <t>[-0.03258170560002327]</t>
-  </si>
-  <si>
-    <t>[-0.14792241156101227]</t>
-  </si>
-  <si>
-    <t>[-0.08180680125951767]</t>
-  </si>
-  <si>
-    <t>[-0.03842215985059738]</t>
-  </si>
-  <si>
-    <t>[-0.050833962857723236]</t>
-  </si>
-  <si>
-    <t>[-0.08805697411298752]</t>
-  </si>
-  <si>
-    <t>[0.23169170320034027]</t>
-  </si>
-  <si>
-    <t>[-0.1883670836687088]</t>
-  </si>
-  <si>
-    <t>[0.17014886438846588]</t>
-  </si>
-  <si>
-    <t>[0.115012988448143]</t>
-  </si>
-  <si>
-    <t>[0.2696371376514435]</t>
-  </si>
-  <si>
-    <t>[-0.11936052143573761]</t>
-  </si>
-  <si>
-    <t>[-0.16470001637935638]</t>
-  </si>
-  <si>
-    <t>[-0.0025476664304733276]</t>
-  </si>
-  <si>
-    <t>[0.029012562707066536]</t>
-  </si>
-  <si>
-    <t>[-0.04253849759697914]</t>
-  </si>
-  <si>
-    <t>[0.042554546147584915]</t>
-  </si>
-  <si>
-    <t>[-0.20980508625507355]</t>
-  </si>
-  <si>
-    <t>[-0.21391631662845612]</t>
-  </si>
-  <si>
-    <t>[-0.00889117643237114]</t>
-  </si>
-  <si>
-    <t>[-0.047173988074064255]</t>
-  </si>
-  <si>
-    <t>[-0.11334186047315598]</t>
-  </si>
-  <si>
-    <t>[0.0693713128566742]</t>
-  </si>
-  <si>
-    <t>[-0.0525774247944355]</t>
-  </si>
-  <si>
-    <t>[0.05483996123075485]</t>
-  </si>
-  <si>
-    <t>[0.05035579204559326]</t>
-  </si>
-  <si>
-    <t>[-0.14484654366970062]</t>
-  </si>
-  <si>
-    <t>[-0.07877904921770096]</t>
-  </si>
-  <si>
-    <t>[-0.029424671083688736]</t>
-  </si>
-  <si>
-    <t>[-0.06165014207363129]</t>
-  </si>
-  <si>
-    <t>[0.10349652171134949]</t>
-  </si>
-  <si>
-    <t>[0.0749390572309494]</t>
-  </si>
-  <si>
-    <t>[-0.10349965840578079]</t>
-  </si>
-  <si>
-    <t>[0.0011393977329134941]</t>
-  </si>
-  <si>
-    <t>[-0.16715797781944275]</t>
-  </si>
-  <si>
-    <t>[0.16373753547668457]</t>
-  </si>
-  <si>
-    <t>[0.12168966233730316]</t>
-  </si>
-  <si>
-    <t>[0.12403766065835953]</t>
-  </si>
-  <si>
-    <t>[0.1518729329109192]</t>
-  </si>
-  <si>
-    <t>[-0.22746945917606354]</t>
-  </si>
-  <si>
-    <t>[0.14117039740085602]</t>
-  </si>
-  <si>
-    <t>[0.2037181705236435]</t>
-  </si>
-  <si>
-    <t>[0.27076399326324463]</t>
-  </si>
-  <si>
-    <t>[-0.026794252917170525]</t>
-  </si>
-  <si>
-    <t>[-0.08014722168445587]</t>
-  </si>
-  <si>
-    <t>[0.13584180176258087]</t>
-  </si>
-  <si>
-    <t>[-0.28867360949516296]</t>
-  </si>
-  <si>
-    <t>[0.0017953525530174375]</t>
-  </si>
-  <si>
-    <t>[-0.1757824718952179]</t>
-  </si>
-  <si>
-    <t>[0.14944709837436676]</t>
-  </si>
-  <si>
-    <t>[-0.018597383052110672]</t>
-  </si>
-  <si>
-    <t>[-0.1232258751988411]</t>
-  </si>
-  <si>
-    <t>[-0.24084614217281342]</t>
-  </si>
-  <si>
-    <t>[0.10992051661014557]</t>
-  </si>
-  <si>
-    <t>[0.0774160847067833]</t>
-  </si>
-  <si>
-    <t>[0.014600786380469799]</t>
-  </si>
-  <si>
-    <t>[0.09702946990728378]</t>
-  </si>
-  <si>
-    <t>[-0.026596680283546448]</t>
-  </si>
-  <si>
-    <t>[0.17609409987926483]</t>
-  </si>
-  <si>
-    <t>[-0.16861769556999207]</t>
-  </si>
-  <si>
-    <t>[-0.0501018688082695]</t>
-  </si>
-  <si>
-    <t>[-0.14775414764881134]</t>
-  </si>
-  <si>
-    <t>[-0.2169189751148224]</t>
-  </si>
-  <si>
-    <t>[0.009129056707024574]</t>
-  </si>
-  <si>
-    <t>[0.02199183776974678]</t>
-  </si>
-  <si>
-    <t>[9.51430993154645e-05]</t>
-  </si>
-  <si>
-    <t>[0.02000458352267742]</t>
-  </si>
-  <si>
-    <t>[-0.1434057205915451]</t>
-  </si>
-  <si>
-    <t>[-0.16849122941493988]</t>
-  </si>
-  <si>
-    <t>[0.09181149303913116]</t>
-  </si>
-  <si>
-    <t>[0.11923793703317642]</t>
-  </si>
-  <si>
-    <t>[-0.09690330922603607]</t>
-  </si>
-  <si>
-    <t>[0.23235134780406952]</t>
-  </si>
-  <si>
-    <t>[0.15316134691238403]</t>
-  </si>
-  <si>
-    <t>[-0.12551406025886536]</t>
-  </si>
-  <si>
-    <t>[-0.11985648423433304]</t>
-  </si>
-  <si>
-    <t>[-0.00242025637999177]</t>
-  </si>
-  <si>
-    <t>[-0.006009458098560572]</t>
-  </si>
-  <si>
-    <t>[-0.13618817925453186]</t>
-  </si>
-  <si>
-    <t>[0.09106345474720001]</t>
-  </si>
-  <si>
-    <t>[0.011028186418116093]</t>
-  </si>
-  <si>
-    <t>[0.0389600470662117]</t>
-  </si>
-  <si>
-    <t>[0.12868458032608032]</t>
-  </si>
-  <si>
-    <t>[-0.0990777313709259]</t>
-  </si>
-  <si>
-    <t>[0.19067221879959106]</t>
-  </si>
-  <si>
-    <t>[-0.022470775991678238]</t>
-  </si>
-  <si>
-    <t>[0.05631280317902565]</t>
-  </si>
-  <si>
-    <t>[-0.20445017516613007]</t>
-  </si>
-  <si>
-    <t>[0.16382615268230438]</t>
-  </si>
-  <si>
-    <t>[0.20964936912059784]</t>
-  </si>
-  <si>
-    <t>[0.07943162322044373]</t>
-  </si>
-  <si>
-    <t>[0.028775177896022797]</t>
-  </si>
-  <si>
-    <t>[-0.05745707079768181]</t>
-  </si>
-  <si>
-    <t>[-0.08089134842157364]</t>
-  </si>
-  <si>
-    <t>[0.17300017178058624]</t>
-  </si>
-  <si>
-    <t>[-0.27753642201423645]</t>
-  </si>
-  <si>
-    <t>[-0.022973300889134407]</t>
-  </si>
-  <si>
-    <t>[-0.11539281159639359]</t>
-  </si>
-  <si>
-    <t>[0.12773194909095764]</t>
-  </si>
-  <si>
-    <t>[0.06861255317926407]</t>
-  </si>
-  <si>
-    <t>[-0.08254300057888031]</t>
-  </si>
-  <si>
-    <t>[-0.06549016386270523]</t>
-  </si>
-  <si>
-    <t>[-0.12062123417854309]</t>
-  </si>
-  <si>
-    <t>[-0.06534338742494583]</t>
-  </si>
-  <si>
-    <t>[0.14323091506958008]</t>
-  </si>
-  <si>
-    <t>[-0.1494227647781372]</t>
-  </si>
-  <si>
-    <t>[0.263353168964386]</t>
-  </si>
-  <si>
-    <t>[0.19102242588996887]</t>
-  </si>
-  <si>
-    <t>[0.16279254853725433]</t>
-  </si>
-  <si>
-    <t>[0.07389073073863983]</t>
-  </si>
-  <si>
-    <t>[-0.032471299171447754]</t>
-  </si>
-  <si>
-    <t>[0.05504804477095604]</t>
-  </si>
-  <si>
-    <t>[0.22251684963703156]</t>
-  </si>
-  <si>
-    <t>[-0.017700552940368652]</t>
-  </si>
-  <si>
-    <t>[-0.07311414182186127]</t>
-  </si>
-  <si>
-    <t>[-0.10646370053291321]</t>
-  </si>
-  <si>
-    <t>[0.16099132597446442]</t>
-  </si>
-  <si>
-    <t>[0.14286074042320251]</t>
-  </si>
-  <si>
-    <t>[-0.0074830083176493645]</t>
-  </si>
-  <si>
-    <t>[-0.13692998886108398]</t>
-  </si>
-  <si>
-    <t>[0.016323763877153397]</t>
-  </si>
-  <si>
-    <t>[0.19834311306476593]</t>
-  </si>
-  <si>
-    <t>[-0.02437584288418293]</t>
-  </si>
-  <si>
-    <t>[-0.028280282393097878]</t>
-  </si>
-  <si>
-    <t>[-0.15201915800571442]</t>
-  </si>
-  <si>
-    <t>[-0.12144830822944641]</t>
-  </si>
-  <si>
-    <t>[0.18716740608215332]</t>
-  </si>
-  <si>
-    <t>[0.035952385514974594]</t>
-  </si>
-  <si>
-    <t>[0.1343960165977478]</t>
-  </si>
-  <si>
-    <t>[-0.31894123554229736]</t>
-  </si>
-  <si>
-    <t>[-0.12981532514095306]</t>
-  </si>
-  <si>
-    <t>[0.07577608525753021]</t>
-  </si>
-  <si>
-    <t>[0.026391981169581413]</t>
-  </si>
-  <si>
-    <t>[0.07252714037895203]</t>
-  </si>
-  <si>
-    <t>[0.06899615377187729]</t>
-  </si>
-  <si>
-    <t>[-0.07988553494215012]</t>
-  </si>
-  <si>
-    <t>[0.05836407467722893]</t>
-  </si>
-  <si>
-    <t>[0.06011132523417473]</t>
-  </si>
-  <si>
-    <t>[-0.026112522929906845]</t>
-  </si>
-  <si>
-    <t>[-0.3342331349849701]</t>
-  </si>
-  <si>
-    <t>[0.019304554909467697]</t>
-  </si>
-  <si>
-    <t>[-0.2647484540939331]</t>
-  </si>
-  <si>
-    <t>[0.08750423789024353]</t>
-  </si>
-  <si>
-    <t>[0.10839610546827316]</t>
-  </si>
-  <si>
-    <t>[-0.036853041499853134]</t>
-  </si>
-  <si>
-    <t>[0.2983243763446808]</t>
-  </si>
-  <si>
-    <t>[-0.1510501205921173]</t>
-  </si>
-  <si>
-    <t>[0.1085590198636055]</t>
-  </si>
-  <si>
-    <t>[-0.1396905779838562]</t>
-  </si>
-  <si>
-    <t>[0.057618092745542526]</t>
-  </si>
-  <si>
-    <t>[-0.13561312854290009]</t>
-  </si>
-  <si>
-    <t>[-0.26851606369018555]</t>
-  </si>
-  <si>
-    <t>[-0.22239601612091064]</t>
-  </si>
-  <si>
-    <t>[-0.2582140266895294]</t>
-  </si>
-  <si>
-    <t>[-0.0211547389626503]</t>
-  </si>
-  <si>
-    <t>[-0.07607409358024597]</t>
-  </si>
-  <si>
-    <t>[0.23062939941883087]</t>
-  </si>
-  <si>
-    <t>[0.2823479473590851]</t>
-  </si>
-  <si>
-    <t>[0.007815790362656116]</t>
-  </si>
-  <si>
-    <t>[0.007349326275289059]</t>
-  </si>
-  <si>
-    <t>[0.13241755962371826]</t>
-  </si>
-  <si>
-    <t>[-0.07523082941770554]</t>
-  </si>
-  <si>
-    <t>[-0.2679314911365509]</t>
-  </si>
-  <si>
-    <t>[0.20352795720100403]</t>
-  </si>
-  <si>
-    <t>[-0.12774613499641418]</t>
-  </si>
-  <si>
-    <t>[0.14845533668994904]</t>
-  </si>
-  <si>
-    <t>[-0.0626440942287445]</t>
-  </si>
-  <si>
-    <t>[-0.08977162092924118]</t>
-  </si>
-  <si>
-    <t>[0.19266283512115479]</t>
-  </si>
-  <si>
-    <t>[-0.0031776984687894583]</t>
-  </si>
-  <si>
-    <t>[-0.127607062458992]</t>
-  </si>
-  <si>
-    <t>[0.22075025737285614]</t>
-  </si>
-  <si>
-    <t>[-0.06657679378986359]</t>
-  </si>
-  <si>
-    <t>[0.11280150711536407]</t>
-  </si>
-  <si>
-    <t>[0.0003955894790124148]</t>
-  </si>
-  <si>
-    <t>[-0.0021458053961396217]</t>
-  </si>
-  <si>
-    <t>[-0.3337417542934418]</t>
-  </si>
-  <si>
-    <t>[-0.07268904149532318]</t>
-  </si>
-  <si>
-    <t>[-0.012995494529604912]</t>
-  </si>
-  <si>
-    <t>[-0.23896652460098267]</t>
-  </si>
-  <si>
-    <t>[-0.07823149114847183]</t>
-  </si>
-  <si>
-    <t>[-0.03373353183269501]</t>
-  </si>
-  <si>
-    <t>[-0.05147060751914978]</t>
-  </si>
-  <si>
-    <t>[0.12303806841373444]</t>
-  </si>
-  <si>
-    <t>[0.06697775423526764]</t>
-  </si>
-  <si>
-    <t>[0.25006163120269775]</t>
-  </si>
-  <si>
-    <t>[-0.21298515796661377]</t>
-  </si>
-  <si>
-    <t>[-0.18632566928863525]</t>
-  </si>
-  <si>
-    <t>[-0.016564372926950455]</t>
-  </si>
-  <si>
-    <t>[-0.3270591199398041]</t>
-  </si>
-  <si>
-    <t>[0.005628631915897131]</t>
-  </si>
-  <si>
-    <t>[0.08311894536018372]</t>
-  </si>
-  <si>
-    <t>[0.08959314972162247]</t>
-  </si>
-  <si>
-    <t>[0.06291837990283966]</t>
-  </si>
-  <si>
-    <t>[0.09738413244485855]</t>
-  </si>
-  <si>
-    <t>[0.0013143486576154828]</t>
-  </si>
-  <si>
-    <t>[-0.22125445306301117]</t>
-  </si>
-  <si>
-    <t>[-0.1048620268702507]</t>
-  </si>
-  <si>
-    <t>[0.08959188312292099]</t>
-  </si>
-  <si>
-    <t>[-0.050891000777482986]</t>
-  </si>
-  <si>
-    <t>[-0.13841290771961212]</t>
-  </si>
-  <si>
-    <t>[-0.09149997681379318]</t>
-  </si>
-  <si>
-    <t>[0.05258403718471527]</t>
-  </si>
-  <si>
-    <t>[-0.1515459418296814]</t>
-  </si>
-  <si>
-    <t>[0.05443268641829491]</t>
-  </si>
-  <si>
-    <t>[0.09845569729804993]</t>
-  </si>
-  <si>
-    <t>[0.022335199639201164]</t>
-  </si>
-  <si>
-    <t>[0.14525942504405975]</t>
-  </si>
-  <si>
-    <t>[-0.2626945376396179]</t>
-  </si>
-  <si>
-    <t>[0.32120949029922485]</t>
-  </si>
-  <si>
-    <t>[-0.06274913251399994]</t>
-  </si>
-  <si>
-    <t>[-0.35174664855003357]</t>
-  </si>
-  <si>
-    <t>[-0.05487783998250961]</t>
-  </si>
-  <si>
-    <t>[-0.1119837686419487]</t>
-  </si>
-  <si>
-    <t>[0.08827394992113113]</t>
-  </si>
-  <si>
-    <t>[0.026884935796260834]</t>
-  </si>
-  <si>
-    <t>[0.05180724710226059]</t>
-  </si>
-  <si>
-    <t>[-0.0681871846318245]</t>
-  </si>
-  <si>
-    <t>[0.163480743765831]</t>
-  </si>
-  <si>
-    <t>[-0.2123754322528839]</t>
-  </si>
-  <si>
-    <t>[-0.00379953533411026]</t>
-  </si>
-  <si>
-    <t>[-0.06129607930779457]</t>
-  </si>
-  <si>
-    <t>[0.04977136105298996]</t>
-  </si>
-  <si>
-    <t>[0.09846770018339157]</t>
-  </si>
-  <si>
-    <t>[-0.21328416466712952]</t>
-  </si>
-  <si>
-    <t>[0.22451481223106384]</t>
-  </si>
-  <si>
-    <t>[-0.12275488674640656]</t>
-  </si>
-  <si>
-    <t>[-0.08545563369989395]</t>
-  </si>
-  <si>
-    <t>[0.17821843922138214]</t>
-  </si>
-  <si>
-    <t>[-0.06660354882478714]</t>
-  </si>
-  <si>
-    <t>[-0.017381135374307632]</t>
-  </si>
-  <si>
-    <t>[-0.44878989458084106]</t>
-  </si>
-  <si>
-    <t>[-0.16897015273571014]</t>
-  </si>
-  <si>
-    <t>[0.058807145804166794]</t>
-  </si>
-  <si>
-    <t>[0.024472789838910103]</t>
-  </si>
-  <si>
-    <t>[0.1013372614979744]</t>
-  </si>
-  <si>
-    <t>[-0.18064545094966888]</t>
-  </si>
-  <si>
-    <t>[0.13327132165431976]</t>
-  </si>
-  <si>
-    <t>[0.022294465452432632]</t>
-  </si>
-  <si>
-    <t>[-0.21127118170261383]</t>
-  </si>
-  <si>
-    <t>[-0.13077418506145477]</t>
-  </si>
-  <si>
-    <t>[-0.06340969353914261]</t>
-  </si>
-  <si>
-    <t>[0.15089592337608337]</t>
-  </si>
-  <si>
-    <t>[0.02122611552476883]</t>
-  </si>
-  <si>
-    <t>[0.08630912750959396]</t>
-  </si>
-  <si>
-    <t>[-0.0324549674987793]</t>
-  </si>
-  <si>
-    <t>[-0.20751667022705078]</t>
-  </si>
-  <si>
-    <t>[0.01911935582756996]</t>
-  </si>
-  <si>
-    <t>[-0.11178260296583176]</t>
-  </si>
-  <si>
-    <t>[0.03070223145186901]</t>
-  </si>
-  <si>
-    <t>[-0.06178739666938782]</t>
-  </si>
-  <si>
-    <t>[-0.18759360909461975]</t>
-  </si>
-  <si>
-    <t>[-0.046285275369882584]</t>
-  </si>
-  <si>
-    <t>[-0.010378921404480934]</t>
-  </si>
-  <si>
-    <t>[-0.12918882071971893]</t>
-  </si>
-  <si>
-    <t>[-0.18917043507099152]</t>
-  </si>
-  <si>
-    <t>[-0.07497554272413254]</t>
-  </si>
-  <si>
-    <t>[0.23741477727890015]</t>
-  </si>
-  <si>
-    <t>[-0.017306841909885406]</t>
-  </si>
-  <si>
-    <t>[0.10765745490789413]</t>
-  </si>
-  <si>
-    <t>[-0.272305965423584]</t>
-  </si>
-  <si>
-    <t>[0.33356034755706787]</t>
-  </si>
-  <si>
-    <t>[0.10624386370182037]</t>
-  </si>
-  <si>
-    <t>[-0.20981758832931519]</t>
-  </si>
-  <si>
-    <t>[0.13530704379081726]</t>
-  </si>
-  <si>
-    <t>[-0.1815747618675232]</t>
-  </si>
-  <si>
-    <t>[0.13961143791675568]</t>
-  </si>
-  <si>
-    <t>[0.0986437126994133]</t>
-  </si>
-  <si>
-    <t>[-0.04122598469257355]</t>
-  </si>
-  <si>
-    <t>[0.1156042069196701]</t>
-  </si>
-  <si>
-    <t>[0.043095119297504425]</t>
-  </si>
-  <si>
-    <t>[0.14066942036151886]</t>
-  </si>
-  <si>
-    <t>[-0.14408475160598755]</t>
-  </si>
-  <si>
-    <t>[-0.10792431980371475]</t>
-  </si>
-  <si>
-    <t>[0.004932807292789221]</t>
-  </si>
-  <si>
-    <t>[0.11972006410360336]</t>
-  </si>
-  <si>
-    <t>[0.0551200732588768]</t>
-  </si>
-  <si>
-    <t>[0.05296090990304947]</t>
-  </si>
-  <si>
-    <t>[0.06081973761320114]</t>
-  </si>
-  <si>
-    <t>[-0.4116615056991577]</t>
-  </si>
-  <si>
-    <t>[-0.28846636414527893]</t>
-  </si>
-  <si>
-    <t>[0.020137103274464607]</t>
-  </si>
-  <si>
-    <t>[0.07155465334653854]</t>
-  </si>
-  <si>
-    <t>[0.1605839878320694]</t>
-  </si>
-  <si>
-    <t>[-0.11502968519926071]</t>
-  </si>
-  <si>
-    <t>[0.05665016919374466]</t>
-  </si>
-  <si>
-    <t>[-0.03342622518539429]</t>
-  </si>
-  <si>
-    <t>[0.03890085220336914]</t>
-  </si>
-  <si>
-    <t>[-0.14007653295993805]</t>
-  </si>
-  <si>
-    <t>[0.14277932047843933]</t>
-  </si>
-  <si>
-    <t>[-0.18725749850273132]</t>
-  </si>
-  <si>
-    <t>[0.2109001874923706]</t>
-  </si>
-  <si>
-    <t>[-0.056347690522670746]</t>
-  </si>
-  <si>
-    <t>[0.05018847808241844]</t>
-  </si>
-  <si>
-    <t>[0.03222169727087021]</t>
-  </si>
-  <si>
-    <t>[0.19143246114253998]</t>
-  </si>
-  <si>
-    <t>[0.29492461681365967]</t>
-  </si>
-  <si>
-    <t>[-0.22542952001094818]</t>
-  </si>
-  <si>
-    <t>[-0.0407591313123703]</t>
-  </si>
-  <si>
-    <t>[-0.06936187297105789]</t>
-  </si>
-  <si>
-    <t>[-0.16282422840595245]</t>
-  </si>
-  <si>
-    <t>[0.1118796244263649]</t>
-  </si>
-  <si>
-    <t>[-0.16105443239212036]</t>
-  </si>
-  <si>
-    <t>[0.34391430020332336]</t>
-  </si>
-  <si>
-    <t>[-0.008774766698479652]</t>
-  </si>
-  <si>
-    <t>[0.16076740622520447]</t>
-  </si>
-  <si>
-    <t>[0.016186675056815147]</t>
-  </si>
-  <si>
-    <t>[-0.06730591505765915]</t>
-  </si>
-  <si>
-    <t>[0.06947246938943863]</t>
-  </si>
-  <si>
-    <t>[-0.12959705293178558]</t>
-  </si>
-  <si>
-    <t>[-0.09051546454429626]</t>
-  </si>
-  <si>
-    <t>[0.12885768711566925]</t>
-  </si>
-  <si>
-    <t>[-0.0022887750528752804]</t>
-  </si>
-  <si>
-    <t>[0.24924267828464508]</t>
-  </si>
-  <si>
-    <t>[0.1416749358177185]</t>
-  </si>
-  <si>
-    <t>[0.00623584957793355]</t>
-  </si>
-  <si>
-    <t>[-0.07068649679422379]</t>
-  </si>
-  <si>
-    <t>[-0.037580594420433044]</t>
-  </si>
-  <si>
-    <t>[-0.19172680377960205]</t>
-  </si>
-  <si>
-    <t>[-0.09769002348184586]</t>
-  </si>
-  <si>
-    <t>[0.05627905949950218]</t>
-  </si>
-  <si>
-    <t>[0.06599489599466324]</t>
-  </si>
-  <si>
-    <t>[0.12174003571271896]</t>
-  </si>
-  <si>
-    <t>[0.3046325743198395]</t>
-  </si>
-  <si>
-    <t>[-0.06106424704194069]</t>
-  </si>
-  <si>
-    <t>[-0.02602970600128174]</t>
-  </si>
-  <si>
-    <t>[-0.083664171397686]</t>
-  </si>
-  <si>
-    <t>[0.1084039956331253]</t>
-  </si>
-  <si>
-    <t>[-0.14217373728752136]</t>
-  </si>
-  <si>
-    <t>[0.09650205820798874]</t>
-  </si>
-  <si>
-    <t>[0.0022420543245971203]</t>
-  </si>
-  <si>
-    <t>[-0.15462005138397217]</t>
-  </si>
-  <si>
-    <t>[-0.2312275767326355]</t>
-  </si>
-  <si>
-    <t>[0.15048320591449738]</t>
-  </si>
-  <si>
-    <t>[0.2742995321750641]</t>
-  </si>
-  <si>
-    <t>[-0.002132617635652423]</t>
-  </si>
-  <si>
-    <t>[-0.054248880594968796]</t>
-  </si>
-  <si>
-    <t>[-0.019254326820373535]</t>
-  </si>
-  <si>
-    <t>[-0.049331843852996826]</t>
-  </si>
-  <si>
-    <t>[0.2092374861240387]</t>
-  </si>
-  <si>
-    <t>[0.14535315334796906]</t>
-  </si>
-  <si>
-    <t>[0.0010682460851967335]</t>
-  </si>
-  <si>
-    <t>[0.10864683985710144]</t>
-  </si>
-  <si>
-    <t>[0.15770477056503296]</t>
-  </si>
-  <si>
-    <t>[0.07964599132537842]</t>
-  </si>
-  <si>
-    <t>[-0.18268944323062897]</t>
-  </si>
-  <si>
-    <t>[0.15966221690177917]</t>
-  </si>
-  <si>
-    <t>[0.13628733158111572]</t>
-  </si>
-  <si>
-    <t>[0.02883921191096306]</t>
-  </si>
-  <si>
-    <t>[0.19160576164722443]</t>
-  </si>
-  <si>
-    <t>[0.09105625748634338]</t>
-  </si>
-  <si>
-    <t>[-0.04185889661312103]</t>
-  </si>
-  <si>
-    <t>[0.09670533239841461]</t>
-  </si>
-  <si>
-    <t>[0.08743061870336533]</t>
-  </si>
-  <si>
-    <t>[-0.2571265399456024]</t>
-  </si>
-  <si>
-    <t>[0.0992201566696167]</t>
-  </si>
-  <si>
-    <t>[-0.19267253577709198]</t>
-  </si>
-  <si>
-    <t>[-0.15472114086151123]</t>
-  </si>
-  <si>
-    <t>[-0.13153357803821564]</t>
-  </si>
-  <si>
-    <t>[-0.061147455126047134]</t>
-  </si>
-  <si>
-    <t>[0.24675233662128448]</t>
-  </si>
-  <si>
-    <t>[-0.24960638582706451]</t>
-  </si>
-  <si>
-    <t>[0.020430851727724075]</t>
-  </si>
-  <si>
-    <t>[0.15346716344356537]</t>
-  </si>
-  <si>
-    <t>[-0.04846084490418434]</t>
-  </si>
-  <si>
-    <t>[0.12128192186355591]</t>
-  </si>
-  <si>
-    <t>[-0.22723835706710815]</t>
-  </si>
-  <si>
-    <t>[-0.15374690294265747]</t>
-  </si>
-  <si>
-    <t>[-0.22192588448524475]</t>
-  </si>
-  <si>
-    <t>[-0.17778819799423218]</t>
-  </si>
-  <si>
-    <t>[0.10415688902139664]</t>
-  </si>
-  <si>
-    <t>[-0.1104736477136612]</t>
-  </si>
-  <si>
-    <t>[0.11051860451698303]</t>
-  </si>
-  <si>
-    <t>[0.06358162313699722]</t>
-  </si>
-  <si>
-    <t>[0.08744990080595016]</t>
-  </si>
-  <si>
-    <t>[0.19277340173721313]</t>
-  </si>
-  <si>
-    <t>[-0.0864453986287117]</t>
-  </si>
-  <si>
-    <t>[-0.06470601260662079]</t>
-  </si>
-  <si>
-    <t>[-0.24609088897705078]</t>
-  </si>
-  <si>
-    <t>[0.02854171395301819]</t>
-  </si>
-  <si>
-    <t>[0.09919996559619904]</t>
-  </si>
-  <si>
-    <t>[-0.051155153661966324]</t>
-  </si>
-  <si>
-    <t>[-0.2793782651424408]</t>
-  </si>
-  <si>
-    <t>[-0.12160442024469376]</t>
-  </si>
-  <si>
-    <t>[-0.05468420311808586]</t>
-  </si>
-  <si>
-    <t>[-0.06843474507331848]</t>
-  </si>
-  <si>
-    <t>[0.03869829326868057]</t>
-  </si>
-  <si>
-    <t>[-0.07278850674629211]</t>
-  </si>
-  <si>
-    <t>[-0.03611457347869873]</t>
-  </si>
-  <si>
-    <t>[-0.19833596050739288]</t>
-  </si>
-  <si>
-    <t>[0.07398468255996704]</t>
-  </si>
-  <si>
-    <t>[-0.14238953590393066]</t>
-  </si>
-  <si>
-    <t>[0.17023509740829468]</t>
-  </si>
-  <si>
-    <t>[0.07607255131006241]</t>
-  </si>
-  <si>
-    <t>[-0.10337797552347183]</t>
-  </si>
-  <si>
-    <t>[0.11515112221240997]</t>
-  </si>
-  <si>
-    <t>[0.28613123297691345]</t>
-  </si>
-  <si>
-    <t>[0.003568115644156933]</t>
-  </si>
-  <si>
-    <t>[-0.03689160570502281]</t>
-  </si>
-  <si>
-    <t>[-0.010559162124991417]</t>
-  </si>
-  <si>
-    <t>[-0.16809958219528198]</t>
-  </si>
-  <si>
-    <t>[0.05704166740179062]</t>
-  </si>
-  <si>
-    <t>[-0.1124049499630928]</t>
-  </si>
-  <si>
-    <t>[-0.09861975163221359]</t>
-  </si>
-  <si>
-    <t>[0.141540989279747]</t>
-  </si>
-  <si>
-    <t>[0.10104347765445709]</t>
-  </si>
-  <si>
-    <t>[0.05164043605327606]</t>
-  </si>
-  <si>
-    <t>[-0.07369594275951385]</t>
-  </si>
-  <si>
-    <t>[-0.15710240602493286]</t>
-  </si>
-  <si>
-    <t>[-0.4244859516620636]</t>
-  </si>
-  <si>
-    <t>[-0.3555527627468109]</t>
-  </si>
-  <si>
-    <t>[-0.04826458916068077]</t>
-  </si>
-  <si>
-    <t>[-0.00046483465121127665]</t>
-  </si>
-  <si>
-    <t>[0.001830009394325316]</t>
-  </si>
-  <si>
-    <t>[-0.03147253021597862]</t>
-  </si>
-  <si>
-    <t>[-0.08127045631408691]</t>
-  </si>
-  <si>
-    <t>[-0.21147514879703522]</t>
-  </si>
-  <si>
-    <t>[0.08386848866939545]</t>
-  </si>
-  <si>
-    <t>[0.16532759368419647]</t>
-  </si>
-  <si>
-    <t>[-0.006020815577358007]</t>
-  </si>
-  <si>
-    <t>[-0.05757877230644226]</t>
-  </si>
-  <si>
-    <t>[-0.05683024227619171]</t>
-  </si>
-  <si>
-    <t>[-0.24832111597061157]</t>
-  </si>
-  <si>
-    <t>[0.0529172308743]</t>
-  </si>
-  <si>
-    <t>[0.13119858503341675]</t>
-  </si>
-  <si>
-    <t>[0.1332796961069107]</t>
-  </si>
-  <si>
-    <t>[-0.15356136858463287]</t>
-  </si>
-  <si>
-    <t>[0.014666610397398472]</t>
-  </si>
-  <si>
-    <t>[0.013813675381243229]</t>
-  </si>
-  <si>
-    <t>[-0.04118390008807182]</t>
-  </si>
-  <si>
-    <t>[0.18685509264469147]</t>
-  </si>
-  <si>
-    <t>[-0.24203374981880188]</t>
-  </si>
-  <si>
-    <t>[0.305934339761734]</t>
-  </si>
-  <si>
-    <t>[-0.2545652985572815]</t>
-  </si>
-  <si>
-    <t>[0.03225041180849075]</t>
-  </si>
-  <si>
-    <t>[-0.022072985768318176]</t>
-  </si>
-  <si>
-    <t>[0.20132938027381897]</t>
-  </si>
-  <si>
-    <t>[0.14676092565059662]</t>
-  </si>
-  <si>
-    <t>[0.2105947732925415]</t>
-  </si>
-  <si>
-    <t>[0.03255550563335419]</t>
-  </si>
-  <si>
-    <t>[0.06378541886806488]</t>
-  </si>
-  <si>
-    <t>[0.15501298010349274]</t>
-  </si>
-  <si>
-    <t>[0.08701299130916595]</t>
-  </si>
-  <si>
-    <t>[-0.13183730840682983]</t>
-  </si>
-  <si>
-    <t>[0.2367120385169983]</t>
-  </si>
-  <si>
-    <t>[0.07092047482728958]</t>
-  </si>
-  <si>
-    <t>[0.09603287279605865]</t>
-  </si>
-  <si>
-    <t>[-0.05022725090384483]</t>
-  </si>
-  <si>
-    <t>[-0.13771341741085052]</t>
-  </si>
-  <si>
-    <t>[-0.3069648742675781]</t>
-  </si>
-  <si>
-    <t>[0.18293191492557526]</t>
-  </si>
-  <si>
-    <t>[0.13662995398044586]</t>
-  </si>
-  <si>
-    <t>[0.07699444144964218]</t>
+    <t>[0.06266529113054276]</t>
+  </si>
+  <si>
+    <t>[0.22319290041923523]</t>
+  </si>
+  <si>
+    <t>[-0.040861908346414566]</t>
+  </si>
+  <si>
+    <t>[-0.17944711446762085]</t>
+  </si>
+  <si>
+    <t>[0.10343602299690247]</t>
+  </si>
+  <si>
+    <t>[0.11436664313077927]</t>
+  </si>
+  <si>
+    <t>[0.12415339797735214]</t>
+  </si>
+  <si>
+    <t>[0.019575513899326324]</t>
+  </si>
+  <si>
+    <t>[0.05837550014257431]</t>
+  </si>
+  <si>
+    <t>[0.10841996222734451]</t>
+  </si>
+  <si>
+    <t>[0.13836275041103363]</t>
+  </si>
+  <si>
+    <t>[-0.17713627219200134]</t>
+  </si>
+  <si>
+    <t>[-0.07533033937215805]</t>
+  </si>
+  <si>
+    <t>[0.03449971601366997]</t>
+  </si>
+  <si>
+    <t>[-0.02363036572933197]</t>
+  </si>
+  <si>
+    <t>[-0.10923364013433456]</t>
+  </si>
+  <si>
+    <t>[-0.15052781999111176]</t>
+  </si>
+  <si>
+    <t>[0.2771475613117218]</t>
+  </si>
+  <si>
+    <t>[-0.11016488820314407]</t>
+  </si>
+  <si>
+    <t>[-0.3100678622722626]</t>
+  </si>
+  <si>
+    <t>[0.10366301238536835]</t>
+  </si>
+  <si>
+    <t>[-0.01894695870578289]</t>
+  </si>
+  <si>
+    <t>[-0.14954793453216553]</t>
+  </si>
+  <si>
+    <t>[-0.10304978489875793]</t>
+  </si>
+  <si>
+    <t>[0.284252405166626]</t>
+  </si>
+  <si>
+    <t>[-0.040181972086429596]</t>
+  </si>
+  <si>
+    <t>[0.09388883411884308]</t>
+  </si>
+  <si>
+    <t>[-0.031068123877048492]</t>
+  </si>
+  <si>
+    <t>[-0.08054344356060028]</t>
+  </si>
+  <si>
+    <t>[0.14061005413532257]</t>
+  </si>
+  <si>
+    <t>[0.04796909913420677]</t>
+  </si>
+  <si>
+    <t>[-0.007147469092160463]</t>
+  </si>
+  <si>
+    <t>[0.09613051265478134]</t>
+  </si>
+  <si>
+    <t>[-0.03350990265607834]</t>
+  </si>
+  <si>
+    <t>[-0.028552526608109474]</t>
+  </si>
+  <si>
+    <t>[0.028065849095582962]</t>
+  </si>
+  <si>
+    <t>[-0.2925173342227936]</t>
+  </si>
+  <si>
+    <t>[0.28276005387306213]</t>
+  </si>
+  <si>
+    <t>[-0.18773609399795532]</t>
+  </si>
+  <si>
+    <t>[-0.047011420130729675]</t>
+  </si>
+  <si>
+    <t>[0.1210993304848671]</t>
+  </si>
+  <si>
+    <t>[-0.2625497579574585]</t>
+  </si>
+  <si>
+    <t>[-0.02878098376095295]</t>
+  </si>
+  <si>
+    <t>[0.14129213988780975]</t>
+  </si>
+  <si>
+    <t>[-0.2897721827030182]</t>
+  </si>
+  <si>
+    <t>[0.12272486090660095]</t>
+  </si>
+  <si>
+    <t>[0.07956945151090622]</t>
+  </si>
+  <si>
+    <t>[-0.024274781346321106]</t>
+  </si>
+  <si>
+    <t>[0.05175948143005371]</t>
+  </si>
+  <si>
+    <t>[-0.014909414574503899]</t>
+  </si>
+  <si>
+    <t>[0.011773822829127312]</t>
+  </si>
+  <si>
+    <t>[-0.03429299220442772]</t>
+  </si>
+  <si>
+    <t>[-0.17082495987415314]</t>
+  </si>
+  <si>
+    <t>[0.010207130573689938]</t>
+  </si>
+  <si>
+    <t>[-0.03815513476729393]</t>
+  </si>
+  <si>
+    <t>[-0.13403822481632233]</t>
+  </si>
+  <si>
+    <t>[-0.09051499515771866]</t>
+  </si>
+  <si>
+    <t>[-0.241289883852005]</t>
+  </si>
+  <si>
+    <t>[0.15617157518863678]</t>
+  </si>
+  <si>
+    <t>[0.06655392795801163]</t>
+  </si>
+  <si>
+    <t>[0.006354708224534988]</t>
+  </si>
+  <si>
+    <t>[0.04464380815625191]</t>
+  </si>
+  <si>
+    <t>[-0.05169622227549553]</t>
+  </si>
+  <si>
+    <t>[-0.04763044789433479]</t>
+  </si>
+  <si>
+    <t>[0.21096140146255493]</t>
+  </si>
+  <si>
+    <t>[0.2227994203567505]</t>
+  </si>
+  <si>
+    <t>[-0.0436638705432415]</t>
+  </si>
+  <si>
+    <t>[-0.005327003542333841]</t>
+  </si>
+  <si>
+    <t>[-0.06079808995127678]</t>
+  </si>
+  <si>
+    <t>[0.023902980610728264]</t>
+  </si>
+  <si>
+    <t>[-0.07981730252504349]</t>
+  </si>
+  <si>
+    <t>[-0.13279728591442108]</t>
+  </si>
+  <si>
+    <t>[0.24854253232479095]</t>
+  </si>
+  <si>
+    <t>[0.012209862470626831]</t>
+  </si>
+  <si>
+    <t>[-0.20154963433742523]</t>
+  </si>
+  <si>
+    <t>[0.088080033659935]</t>
+  </si>
+  <si>
+    <t>[-0.009862866252660751]</t>
+  </si>
+  <si>
+    <t>[-0.1395910531282425]</t>
+  </si>
+  <si>
+    <t>[-0.2015846222639084]</t>
+  </si>
+  <si>
+    <t>[0.00036386674037203193]</t>
+  </si>
+  <si>
+    <t>[-0.130359947681427]</t>
+  </si>
+  <si>
+    <t>[-0.12010332942008972]</t>
+  </si>
+  <si>
+    <t>[0.0990016758441925]</t>
+  </si>
+  <si>
+    <t>[-0.030685054138302803]</t>
+  </si>
+  <si>
+    <t>[0.022567592561244965]</t>
+  </si>
+  <si>
+    <t>[-0.188706636428833]</t>
+  </si>
+  <si>
+    <t>[-0.14105214178562164]</t>
+  </si>
+  <si>
+    <t>[0.28887009620666504]</t>
+  </si>
+  <si>
+    <t>[0.18387196958065033]</t>
+  </si>
+  <si>
+    <t>[0.0523022897541523]</t>
+  </si>
+  <si>
+    <t>[-0.20583759248256683]</t>
+  </si>
+  <si>
+    <t>[-0.035831764340400696]</t>
+  </si>
+  <si>
+    <t>[0.1944163292646408]</t>
+  </si>
+  <si>
+    <t>[0.2072451412677765]</t>
+  </si>
+  <si>
+    <t>[0.03854204714298248]</t>
+  </si>
+  <si>
+    <t>[0.03041940927505493]</t>
+  </si>
+  <si>
+    <t>[-0.04989168792963028]</t>
+  </si>
+  <si>
+    <t>[0.0022327862679958344]</t>
+  </si>
+  <si>
+    <t>[-0.13749171793460846]</t>
+  </si>
+  <si>
+    <t>[-0.032384056597948074]</t>
+  </si>
+  <si>
+    <t>[-0.015475252643227577]</t>
+  </si>
+  <si>
+    <t>[0.07679274678230286]</t>
+  </si>
+  <si>
+    <t>[0.03790925443172455]</t>
+  </si>
+  <si>
+    <t>[-0.041407957673072815]</t>
+  </si>
+  <si>
+    <t>[-0.0670713558793068]</t>
+  </si>
+  <si>
+    <t>[-0.01874498277902603]</t>
+  </si>
+  <si>
+    <t>[-0.11180166900157928]</t>
+  </si>
+  <si>
+    <t>[0.1257113665342331]</t>
+  </si>
+  <si>
+    <t>[0.0035600324627012014]</t>
+  </si>
+  <si>
+    <t>[0.14746412634849548]</t>
+  </si>
+  <si>
+    <t>[0.2834952175617218]</t>
+  </si>
+  <si>
+    <t>[-0.21837861835956573]</t>
+  </si>
+  <si>
+    <t>[0.18695800006389618]</t>
+  </si>
+  <si>
+    <t>[-0.11725980788469315]</t>
+  </si>
+  <si>
+    <t>[-0.08296366780996323]</t>
+  </si>
+  <si>
+    <t>[-0.1450618952512741]</t>
+  </si>
+  <si>
+    <t>[-0.02261373959481716]</t>
+  </si>
+  <si>
+    <t>[-0.3649922013282776]</t>
+  </si>
+  <si>
+    <t>[-0.18200424313545227]</t>
+  </si>
+  <si>
+    <t>[-0.0476820170879364]</t>
+  </si>
+  <si>
+    <t>[0.057205166667699814]</t>
+  </si>
+  <si>
+    <t>[-0.02013867162168026]</t>
+  </si>
+  <si>
+    <t>[0.1333385705947876]</t>
+  </si>
+  <si>
+    <t>[-0.11293604224920273]</t>
+  </si>
+  <si>
+    <t>[-0.06646854430437088]</t>
+  </si>
+  <si>
+    <t>[-0.2572433352470398]</t>
+  </si>
+  <si>
+    <t>[0.0040651424787938595]</t>
+  </si>
+  <si>
+    <t>[0.08628400415182114]</t>
+  </si>
+  <si>
+    <t>[0.08450043201446533]</t>
+  </si>
+  <si>
+    <t>[0.1555045247077942]</t>
+  </si>
+  <si>
+    <t>[0.01752372831106186]</t>
+  </si>
+  <si>
+    <t>[0.07241616398096085]</t>
+  </si>
+  <si>
+    <t>[-0.020810790359973907]</t>
+  </si>
+  <si>
+    <t>[0.009948131628334522]</t>
+  </si>
+  <si>
+    <t>[0.10205994546413422]</t>
+  </si>
+  <si>
+    <t>[-0.009128893725574017]</t>
+  </si>
+  <si>
+    <t>[-0.174697607755661]</t>
+  </si>
+  <si>
+    <t>[-0.17301326990127563]</t>
+  </si>
+  <si>
+    <t>[0.023041915148496628]</t>
+  </si>
+  <si>
+    <t>[-0.09915312379598618]</t>
+  </si>
+  <si>
+    <t>[0.2390914410352707]</t>
+  </si>
+  <si>
+    <t>[-0.05326821282505989]</t>
+  </si>
+  <si>
+    <t>[0.14668133854866028]</t>
+  </si>
+  <si>
+    <t>[-0.1687716543674469]</t>
+  </si>
+  <si>
+    <t>[-0.05176834762096405]</t>
+  </si>
+  <si>
+    <t>[-0.15437570214271545]</t>
+  </si>
+  <si>
+    <t>[0.0868920236825943]</t>
+  </si>
+  <si>
+    <t>[0.06124872341752052]</t>
+  </si>
+  <si>
+    <t>[0.041129257529973984]</t>
+  </si>
+  <si>
+    <t>[0.015641290694475174]</t>
+  </si>
+  <si>
+    <t>[0.04628956690430641]</t>
+  </si>
+  <si>
+    <t>[0.11838516592979431]</t>
+  </si>
+  <si>
+    <t>[0.01746681146323681]</t>
+  </si>
+  <si>
+    <t>[0.04305581375956535]</t>
+  </si>
+  <si>
+    <t>[-0.1336391419172287]</t>
+  </si>
+  <si>
+    <t>[0.17709337174892426]</t>
+  </si>
+  <si>
+    <t>[-0.1867920309305191]</t>
+  </si>
+  <si>
+    <t>[0.15701566636562347]</t>
+  </si>
+  <si>
+    <t>[-0.03486601263284683]</t>
+  </si>
+  <si>
+    <t>[0.1315058171749115]</t>
+  </si>
+  <si>
+    <t>[0.08451685309410095]</t>
+  </si>
+  <si>
+    <t>[-0.20623891055583954]</t>
+  </si>
+  <si>
+    <t>[-0.00721696438267827]</t>
+  </si>
+  <si>
+    <t>[0.18843555450439453]</t>
+  </si>
+  <si>
+    <t>[0.10121722519397736]</t>
+  </si>
+  <si>
+    <t>[-0.32872769236564636]</t>
+  </si>
+  <si>
+    <t>[0.11375628411769867]</t>
+  </si>
+  <si>
+    <t>[-0.02866225130856037]</t>
+  </si>
+  <si>
+    <t>[0.015638915821909904]</t>
+  </si>
+  <si>
+    <t>[-0.03104177676141262]</t>
+  </si>
+  <si>
+    <t>[0.02239799313247204]</t>
+  </si>
+  <si>
+    <t>[0.18985401093959808]</t>
+  </si>
+  <si>
+    <t>[0.1432902216911316]</t>
+  </si>
+  <si>
+    <t>[-0.1899634599685669]</t>
+  </si>
+  <si>
+    <t>[0.0650697872042656]</t>
+  </si>
+  <si>
+    <t>[-0.03774845227599144]</t>
+  </si>
+  <si>
+    <t>[-0.07669521868228912]</t>
+  </si>
+  <si>
+    <t>[-0.060680896043777466]</t>
+  </si>
+  <si>
+    <t>[0.07552894949913025]</t>
+  </si>
+  <si>
+    <t>[-0.05362607538700104]</t>
+  </si>
+  <si>
+    <t>[-0.15352386236190796]</t>
+  </si>
+  <si>
+    <t>[-0.22535237669944763]</t>
+  </si>
+  <si>
+    <t>[-0.2021319717168808]</t>
+  </si>
+  <si>
+    <t>[0.18182054162025452]</t>
+  </si>
+  <si>
+    <t>[0.21571125090122223]</t>
+  </si>
+  <si>
+    <t>[-0.09588201344013214]</t>
+  </si>
+  <si>
+    <t>[-0.2687990665435791]</t>
+  </si>
+  <si>
+    <t>[0.2331361025571823]</t>
+  </si>
+  <si>
+    <t>[0.16408278048038483]</t>
+  </si>
+  <si>
+    <t>[-0.02738029696047306]</t>
+  </si>
+  <si>
+    <t>[0.02323460392653942]</t>
+  </si>
+  <si>
+    <t>[-0.13248908519744873]</t>
+  </si>
+  <si>
+    <t>[-0.050905242562294006]</t>
+  </si>
+  <si>
+    <t>[-0.030965598300099373]</t>
+  </si>
+  <si>
+    <t>[-0.35568830370903015]</t>
+  </si>
+  <si>
+    <t>[0.10097194463014603]</t>
+  </si>
+  <si>
+    <t>[0.23741145431995392]</t>
+  </si>
+  <si>
+    <t>[0.2081940472126007]</t>
+  </si>
+  <si>
+    <t>[-0.17948578298091888]</t>
+  </si>
+  <si>
+    <t>[-0.0062463246285915375]</t>
+  </si>
+  <si>
+    <t>[-0.02145768143236637]</t>
+  </si>
+  <si>
+    <t>[0.163249209523201]</t>
+  </si>
+  <si>
+    <t>[-0.25374072790145874]</t>
+  </si>
+  <si>
+    <t>[0.22177617251873016]</t>
+  </si>
+  <si>
+    <t>[-0.05169074982404709]</t>
+  </si>
+  <si>
+    <t>[-0.11425332725048065]</t>
+  </si>
+  <si>
+    <t>[0.06411000341176987]</t>
+  </si>
+  <si>
+    <t>[0.1339409500360489]</t>
+  </si>
+  <si>
+    <t>[0.012643913738429546]</t>
+  </si>
+  <si>
+    <t>[-0.14653585851192474]</t>
+  </si>
+  <si>
+    <t>[0.256727397441864]</t>
+  </si>
+  <si>
+    <t>[-0.01874561421573162]</t>
+  </si>
+  <si>
+    <t>[-0.07276865839958191]</t>
+  </si>
+  <si>
+    <t>[0.008534742519259453]</t>
+  </si>
+  <si>
+    <t>[-0.04456363245844841]</t>
+  </si>
+  <si>
+    <t>[0.0907735601067543]</t>
+  </si>
+  <si>
+    <t>[-0.1207733228802681]</t>
+  </si>
+  <si>
+    <t>[-0.2860570549964905]</t>
+  </si>
+  <si>
+    <t>[-0.15408076345920563]</t>
+  </si>
+  <si>
+    <t>[-0.008623849600553513]</t>
+  </si>
+  <si>
+    <t>[-0.08230272680521011]</t>
+  </si>
+  <si>
+    <t>[0.2171640545129776]</t>
+  </si>
+  <si>
+    <t>[-0.0369926318526268]</t>
+  </si>
+  <si>
+    <t>[-0.02120617777109146]</t>
+  </si>
+  <si>
+    <t>[-0.08321572095155716]</t>
+  </si>
+  <si>
+    <t>[0.1625160574913025]</t>
+  </si>
+  <si>
+    <t>[-0.09622152149677277]</t>
+  </si>
+  <si>
+    <t>[0.11390010267496109]</t>
+  </si>
+  <si>
+    <t>[0.08112442493438721]</t>
+  </si>
+  <si>
+    <t>[-0.02856137976050377]</t>
+  </si>
+  <si>
+    <t>[0.05621539428830147]</t>
+  </si>
+  <si>
+    <t>[-0.01703101582825184]</t>
+  </si>
+  <si>
+    <t>[0.23891004920005798]</t>
+  </si>
+  <si>
+    <t>[-0.4181618392467499]</t>
+  </si>
+  <si>
+    <t>[0.004147876985371113]</t>
+  </si>
+  <si>
+    <t>[-0.07070445269346237]</t>
+  </si>
+  <si>
+    <t>[-0.0005062451236881316]</t>
+  </si>
+  <si>
+    <t>[-0.2035035789012909]</t>
+  </si>
+  <si>
+    <t>[-0.0583617277443409]</t>
+  </si>
+  <si>
+    <t>[-0.28078073263168335]</t>
+  </si>
+  <si>
+    <t>[0.039112646132707596]</t>
+  </si>
+  <si>
+    <t>[0.10518260300159454]</t>
+  </si>
+  <si>
+    <t>[0.05712263658642769]</t>
+  </si>
+  <si>
+    <t>[-0.27856120467185974]</t>
+  </si>
+  <si>
+    <t>[0.058227814733982086]</t>
+  </si>
+  <si>
+    <t>[0.2606636583805084]</t>
+  </si>
+  <si>
+    <t>[-0.001339178765192628]</t>
+  </si>
+  <si>
+    <t>[0.21726466715335846]</t>
+  </si>
+  <si>
+    <t>[-0.23509173095226288]</t>
+  </si>
+  <si>
+    <t>[0.030714120715856552]</t>
+  </si>
+  <si>
+    <t>[-0.1535215675830841]</t>
+  </si>
+  <si>
+    <t>[-0.29457831382751465]</t>
+  </si>
+  <si>
+    <t>[0.12699691951274872]</t>
+  </si>
+  <si>
+    <t>[0.04874405637383461]</t>
+  </si>
+  <si>
+    <t>[0.05423067510128021]</t>
+  </si>
+  <si>
+    <t>[-0.12002868950366974]</t>
+  </si>
+  <si>
+    <t>[0.0009793475037440658]</t>
+  </si>
+  <si>
+    <t>[-0.046140167862176895]</t>
+  </si>
+  <si>
+    <t>[-0.07394824922084808]</t>
+  </si>
+  <si>
+    <t>[0.11467750370502472]</t>
+  </si>
+  <si>
+    <t>[0.16209296882152557]</t>
+  </si>
+  <si>
+    <t>[0.2232459932565689]</t>
+  </si>
+  <si>
+    <t>[0.045626118779182434]</t>
+  </si>
+  <si>
+    <t>[0.27701660990715027]</t>
+  </si>
+  <si>
+    <t>[-0.16058523952960968]</t>
+  </si>
+  <si>
+    <t>[-0.14787469804286957]</t>
+  </si>
+  <si>
+    <t>[-0.2705187499523163]</t>
+  </si>
+  <si>
+    <t>[-0.20364511013031006]</t>
+  </si>
+  <si>
+    <t>[0.0012920734006911516]</t>
+  </si>
+  <si>
+    <t>[0.045795269310474396]</t>
+  </si>
+  <si>
+    <t>[-0.12347213923931122]</t>
+  </si>
+  <si>
+    <t>[-0.15976965427398682]</t>
+  </si>
+  <si>
+    <t>[-0.3893946409225464]</t>
+  </si>
+  <si>
+    <t>[0.09863006323575974]</t>
+  </si>
+  <si>
+    <t>[-0.15687055885791779]</t>
+  </si>
+  <si>
+    <t>[-0.15815548598766327]</t>
+  </si>
+  <si>
+    <t>[0.02689729630947113]</t>
+  </si>
+  <si>
+    <t>[-0.1013975590467453]</t>
+  </si>
+  <si>
+    <t>[-0.13269954919815063]</t>
+  </si>
+  <si>
+    <t>[0.09989124536514282]</t>
+  </si>
+  <si>
+    <t>[-0.20016992092132568]</t>
+  </si>
+  <si>
+    <t>[0.000495675194542855]</t>
+  </si>
+  <si>
+    <t>[0.17325986921787262]</t>
+  </si>
+  <si>
+    <t>[-0.07994736731052399]</t>
+  </si>
+  <si>
+    <t>[0.06771626323461533]</t>
+  </si>
+  <si>
+    <t>[0.023097332566976547]</t>
+  </si>
+  <si>
+    <t>[-0.12117765843868256]</t>
+  </si>
+  <si>
+    <t>[0.13080629706382751]</t>
+  </si>
+  <si>
+    <t>[0.12684956192970276]</t>
+  </si>
+  <si>
+    <t>[0.27704882621765137]</t>
+  </si>
+  <si>
+    <t>[0.06367485225200653]</t>
+  </si>
+  <si>
+    <t>[-0.1393136978149414]</t>
+  </si>
+  <si>
+    <t>[-0.21894441545009613]</t>
+  </si>
+  <si>
+    <t>[-0.07754416763782501]</t>
+  </si>
+  <si>
+    <t>[-0.27924150228500366]</t>
+  </si>
+  <si>
+    <t>[0.035106804221868515]</t>
+  </si>
+  <si>
+    <t>[0.19857582449913025]</t>
+  </si>
+  <si>
+    <t>[-0.09345685690641403]</t>
+  </si>
+  <si>
+    <t>[-0.08500488847494125]</t>
+  </si>
+  <si>
+    <t>[0.11959630995988846]</t>
+  </si>
+  <si>
+    <t>[0.009818010963499546]</t>
+  </si>
+  <si>
+    <t>[0.0004171192704234272]</t>
+  </si>
+  <si>
+    <t>[0.16023662686347961]</t>
+  </si>
+  <si>
+    <t>[0.39270320534706116]</t>
+  </si>
+  <si>
+    <t>[-0.049517922103405]</t>
+  </si>
+  <si>
+    <t>[0.2689366042613983]</t>
+  </si>
+  <si>
+    <t>[-0.12400728464126587]</t>
+  </si>
+  <si>
+    <t>[0.20708155632019043]</t>
+  </si>
+  <si>
+    <t>[0.07382079213857651]</t>
+  </si>
+  <si>
+    <t>[-0.11635352671146393]</t>
+  </si>
+  <si>
+    <t>[-0.02907916158437729]</t>
+  </si>
+  <si>
+    <t>[-0.08615867048501968]</t>
+  </si>
+  <si>
+    <t>[-0.2971956133842468]</t>
+  </si>
+  <si>
+    <t>[-0.09985759109258652]</t>
+  </si>
+  <si>
+    <t>[-0.13840924203395844]</t>
+  </si>
+  <si>
+    <t>[0.34710806608200073]</t>
+  </si>
+  <si>
+    <t>[0.14310623705387115]</t>
+  </si>
+  <si>
+    <t>[-0.13986089825630188]</t>
+  </si>
+  <si>
+    <t>[0.08117398619651794]</t>
+  </si>
+  <si>
+    <t>[-0.0609867125749588]</t>
+  </si>
+  <si>
+    <t>[-0.06758079677820206]</t>
+  </si>
+  <si>
+    <t>[-0.03394421190023422]</t>
+  </si>
+  <si>
+    <t>[-0.28437116742134094]</t>
+  </si>
+  <si>
+    <t>[0.06432800740003586]</t>
+  </si>
+  <si>
+    <t>[-0.0509922131896019]</t>
+  </si>
+  <si>
+    <t>[-0.0027283113449811935]</t>
+  </si>
+  <si>
+    <t>[0.20916543900966644]</t>
+  </si>
+  <si>
+    <t>[0.10175865888595581]</t>
+  </si>
+  <si>
+    <t>[0.027060143649578094]</t>
+  </si>
+  <si>
+    <t>[0.018561724573373795]</t>
+  </si>
+  <si>
+    <t>[-0.13654540479183197]</t>
+  </si>
+  <si>
+    <t>[-0.16042545437812805]</t>
+  </si>
+  <si>
+    <t>[-0.008978973142802715]</t>
+  </si>
+  <si>
+    <t>[-0.11450144648551941]</t>
+  </si>
+  <si>
+    <t>[-0.1231156438589096]</t>
+  </si>
+  <si>
+    <t>[0.012699143029749393]</t>
+  </si>
+  <si>
+    <t>[0.22579148411750793]</t>
+  </si>
+  <si>
+    <t>[0.17939941585063934]</t>
+  </si>
+  <si>
+    <t>[0.04647005721926689]</t>
+  </si>
+  <si>
+    <t>[-0.1536007523536682]</t>
+  </si>
+  <si>
+    <t>[-0.07932829856872559]</t>
+  </si>
+  <si>
+    <t>[0.0029220457654446363]</t>
+  </si>
+  <si>
+    <t>[-0.22778144478797913]</t>
+  </si>
+  <si>
+    <t>[0.21629317104816437]</t>
+  </si>
+  <si>
+    <t>[0.0002997973351739347]</t>
+  </si>
+  <si>
+    <t>[0.11387976258993149]</t>
+  </si>
+  <si>
+    <t>[-0.3054039478302002]</t>
+  </si>
+  <si>
+    <t>[-0.08024083077907562]</t>
+  </si>
+  <si>
+    <t>[-0.02859906665980816]</t>
+  </si>
+  <si>
+    <t>[-0.11489130556583405]</t>
+  </si>
+  <si>
+    <t>[-0.04204349219799042]</t>
+  </si>
+  <si>
+    <t>[0.14022597670555115]</t>
+  </si>
+  <si>
+    <t>[-0.15861418843269348]</t>
+  </si>
+  <si>
+    <t>[-0.002761491807177663]</t>
+  </si>
+  <si>
+    <t>[0.1620686799287796]</t>
+  </si>
+  <si>
+    <t>[-0.08166670054197311]</t>
+  </si>
+  <si>
+    <t>[-0.3129965364933014]</t>
+  </si>
+  <si>
+    <t>[0.05247852951288223]</t>
+  </si>
+  <si>
+    <t>[-0.07499158382415771]</t>
+  </si>
+  <si>
+    <t>[0.031923964619636536]</t>
+  </si>
+  <si>
+    <t>[0.1419529765844345]</t>
+  </si>
+  <si>
+    <t>[0.17232273519039154]</t>
+  </si>
+  <si>
+    <t>[0.06638206541538239]</t>
+  </si>
+  <si>
+    <t>[0.03758084028959274]</t>
+  </si>
+  <si>
+    <t>[-0.1818593293428421]</t>
+  </si>
+  <si>
+    <t>[-0.36788371205329895]</t>
+  </si>
+  <si>
+    <t>[-0.10772605240345001]</t>
+  </si>
+  <si>
+    <t>[-0.09322599321603775]</t>
+  </si>
+  <si>
+    <t>[0.19544637203216553]</t>
+  </si>
+  <si>
+    <t>[0.09644106775522232]</t>
+  </si>
+  <si>
+    <t>[-0.008727695792913437]</t>
+  </si>
+  <si>
+    <t>[-0.013814987614750862]</t>
+  </si>
+  <si>
+    <t>[-0.11588391661643982]</t>
+  </si>
+  <si>
+    <t>[0.13115836679935455]</t>
+  </si>
+  <si>
+    <t>[0.2017240822315216]</t>
+  </si>
+  <si>
+    <t>[0.012266772799193859]</t>
+  </si>
+  <si>
+    <t>[0.20559033751487732]</t>
+  </si>
+  <si>
+    <t>[0.010894502513110638]</t>
+  </si>
+  <si>
+    <t>[0.28849098086357117]</t>
+  </si>
+  <si>
+    <t>[-0.08930379152297974]</t>
+  </si>
+  <si>
+    <t>[0.1003989577293396]</t>
+  </si>
+  <si>
+    <t>[0.03531680628657341]</t>
+  </si>
+  <si>
+    <t>[-0.1598588526248932]</t>
+  </si>
+  <si>
+    <t>[-0.0930926576256752]</t>
+  </si>
+  <si>
+    <t>[0.017440127208828926]</t>
+  </si>
+  <si>
+    <t>[-0.2302446961402893]</t>
+  </si>
+  <si>
+    <t>[0.020736675709486008]</t>
+  </si>
+  <si>
+    <t>[0.1355566829442978]</t>
+  </si>
+  <si>
+    <t>[-0.19848467409610748]</t>
+  </si>
+  <si>
+    <t>[0.11144443601369858]</t>
+  </si>
+  <si>
+    <t>[0.013098497875034809]</t>
+  </si>
+  <si>
+    <t>[-0.13265961408615112]</t>
+  </si>
+  <si>
+    <t>[0.1528318077325821]</t>
+  </si>
+  <si>
+    <t>[0.06931934505701065]</t>
+  </si>
+  <si>
+    <t>[0.20434311032295227]</t>
+  </si>
+  <si>
+    <t>[-0.14919626712799072]</t>
+  </si>
+  <si>
+    <t>[0.15111103653907776]</t>
+  </si>
+  <si>
+    <t>[0.019495338201522827]</t>
+  </si>
+  <si>
+    <t>[0.11428683251142502]</t>
+  </si>
+  <si>
+    <t>[-0.004703288432210684]</t>
+  </si>
+  <si>
+    <t>[-0.12804019451141357]</t>
+  </si>
+  <si>
+    <t>[0.07501129806041718]</t>
+  </si>
+  <si>
+    <t>[-0.02257615700364113]</t>
+  </si>
+  <si>
+    <t>[0.24345552921295166]</t>
+  </si>
+  <si>
+    <t>[0.0815364271402359]</t>
+  </si>
+  <si>
+    <t>[0.1536349207162857]</t>
+  </si>
+  <si>
+    <t>[-0.007650691084563732]</t>
+  </si>
+  <si>
+    <t>[-0.14826610684394836]</t>
+  </si>
+  <si>
+    <t>[0.08478924632072449]</t>
+  </si>
+  <si>
+    <t>[0.07224215567111969]</t>
+  </si>
+  <si>
+    <t>[0.10593140870332718]</t>
+  </si>
+  <si>
+    <t>[-0.1360640525817871]</t>
+  </si>
+  <si>
+    <t>[-0.018840646371245384]</t>
+  </si>
+  <si>
+    <t>[-0.12397312372922897]</t>
+  </si>
+  <si>
+    <t>[0.16235654056072235]</t>
+  </si>
+  <si>
+    <t>[-0.12367118149995804]</t>
+  </si>
+  <si>
+    <t>[0.07131172716617584]</t>
+  </si>
+  <si>
+    <t>[-0.03909768536686897]</t>
+  </si>
+  <si>
+    <t>[0.290377140045166]</t>
+  </si>
+  <si>
+    <t>[-0.4414732754230499]</t>
+  </si>
+  <si>
+    <t>[-0.09683291614055634]</t>
+  </si>
+  <si>
+    <t>[-0.07938725501298904]</t>
+  </si>
+  <si>
+    <t>[0.19120927155017853]</t>
+  </si>
+  <si>
+    <t>[-0.17421893775463104]</t>
+  </si>
+  <si>
+    <t>[-0.051269128918647766]</t>
+  </si>
+  <si>
+    <t>[0.07007633149623871]</t>
+  </si>
+  <si>
+    <t>[-0.24514083564281464]</t>
+  </si>
+  <si>
+    <t>[0.09569685906171799]</t>
+  </si>
+  <si>
+    <t>[-0.0009459403809159994]</t>
+  </si>
+  <si>
+    <t>[0.09663207828998566]</t>
+  </si>
+  <si>
+    <t>[0.11126883327960968]</t>
+  </si>
+  <si>
+    <t>[0.07408661395311356]</t>
+  </si>
+  <si>
+    <t>[0.10490112006664276]</t>
+  </si>
+  <si>
+    <t>[0.05395593121647835]</t>
+  </si>
+  <si>
+    <t>[0.17881177365779877]</t>
+  </si>
+  <si>
+    <t>[-0.14719389379024506]</t>
+  </si>
+  <si>
+    <t>[-0.0848783627152443]</t>
+  </si>
+  <si>
+    <t>[-0.050530485808849335]</t>
+  </si>
+  <si>
+    <t>[-0.06624285131692886]</t>
+  </si>
+  <si>
+    <t>[0.24783560633659363]</t>
+  </si>
+  <si>
+    <t>[0.0930221751332283]</t>
+  </si>
+  <si>
+    <t>[0.19357509911060333]</t>
+  </si>
+  <si>
+    <t>[0.20015490055084229]</t>
+  </si>
+  <si>
+    <t>[-0.07822174578905106]</t>
+  </si>
+  <si>
+    <t>[-0.3190930187702179]</t>
+  </si>
+  <si>
+    <t>[0.008330132812261581]</t>
+  </si>
+  <si>
+    <t>[0.12896987795829773]</t>
+  </si>
+  <si>
+    <t>[0.190374493598938]</t>
+  </si>
+  <si>
+    <t>[0.1552349179983139]</t>
+  </si>
+  <si>
+    <t>[-0.04699260741472244]</t>
+  </si>
+  <si>
+    <t>[0.24988023936748505]</t>
+  </si>
+  <si>
+    <t>[-0.09612233191728592]</t>
+  </si>
+  <si>
+    <t>[-0.08614873141050339]</t>
+  </si>
+  <si>
+    <t>[-0.044710271060466766]</t>
+  </si>
+  <si>
+    <t>[-0.008033597841858864]</t>
+  </si>
+  <si>
+    <t>[0.1465744823217392]</t>
+  </si>
+  <si>
+    <t>[0.11898110061883926]</t>
+  </si>
+  <si>
+    <t>[-0.11490689218044281]</t>
+  </si>
+  <si>
+    <t>[-0.22679884731769562]</t>
+  </si>
+  <si>
+    <t>[-0.03915877267718315]</t>
+  </si>
+  <si>
+    <t>[0.07056521624326706]</t>
+  </si>
+  <si>
+    <t>[-0.04450899735093117]</t>
+  </si>
+  <si>
+    <t>[0.18016734719276428]</t>
+  </si>
+  <si>
+    <t>[0.03802332654595375]</t>
+  </si>
+  <si>
+    <t>[-0.003720550797879696]</t>
+  </si>
+  <si>
+    <t>[0.1300431489944458]</t>
+  </si>
+  <si>
+    <t>[0.03768431767821312]</t>
+  </si>
+  <si>
+    <t>[-0.014170549809932709]</t>
+  </si>
+  <si>
+    <t>[0.09465467184782028]</t>
+  </si>
+  <si>
+    <t>[-0.12446516007184982]</t>
+  </si>
+  <si>
+    <t>[-0.20926618576049805]</t>
+  </si>
+  <si>
+    <t>[-0.17549052834510803]</t>
+  </si>
+  <si>
+    <t>[0.021379806101322174]</t>
+  </si>
+  <si>
+    <t>[-0.2309492826461792]</t>
+  </si>
+  <si>
+    <t>[0.08573763817548752]</t>
+  </si>
+  <si>
+    <t>[0.039885297417640686]</t>
+  </si>
+  <si>
+    <t>[-0.009387707337737083]</t>
+  </si>
+  <si>
+    <t>[-0.04088938236236572]</t>
+  </si>
+  <si>
+    <t>[-0.21239914000034332]</t>
+  </si>
+  <si>
+    <t>[-0.16830763220787048]</t>
+  </si>
+  <si>
+    <t>[-0.08701533079147339]</t>
+  </si>
+  <si>
+    <t>[-0.06293448060750961]</t>
+  </si>
+  <si>
+    <t>[-0.07673117518424988]</t>
+  </si>
+  <si>
+    <t>[-0.11167827248573303]</t>
+  </si>
+  <si>
+    <t>[0.28985580801963806]</t>
+  </si>
+  <si>
+    <t>[-0.10394622385501862]</t>
+  </si>
+  <si>
+    <t>[-0.13867183029651642]</t>
+  </si>
+  <si>
+    <t>[0.052610866725444794]</t>
+  </si>
+  <si>
+    <t>[0.33815380930900574]</t>
+  </si>
+  <si>
+    <t>[-0.14561431109905243]</t>
+  </si>
+  <si>
+    <t>[-0.039083633571863174]</t>
+  </si>
+  <si>
+    <t>[0.11531166732311249]</t>
+  </si>
+  <si>
+    <t>[0.08510193228721619]</t>
+  </si>
+  <si>
+    <t>[0.08099927753210068]</t>
+  </si>
+  <si>
+    <t>[0.06778188049793243]</t>
+  </si>
+  <si>
+    <t>[-0.03266546502709389]</t>
+  </si>
+  <si>
+    <t>[0.20832714438438416]</t>
+  </si>
+  <si>
+    <t>[0.05026821419596672]</t>
+  </si>
+  <si>
+    <t>[-0.06619828939437866]</t>
+  </si>
+  <si>
+    <t>[-0.22804459929466248]</t>
+  </si>
+  <si>
+    <t>[0.03968658670783043]</t>
+  </si>
+  <si>
+    <t>[0.13099005818367004]</t>
+  </si>
+  <si>
+    <t>[-0.09811682254076004]</t>
+  </si>
+  <si>
+    <t>[0.11653203517198563]</t>
+  </si>
+  <si>
+    <t>[-0.10989031195640564]</t>
+  </si>
+  <si>
+    <t>[0.024638069793581963]</t>
+  </si>
+  <si>
+    <t>[0.22219806909561157]</t>
+  </si>
+  <si>
+    <t>[0.08996682614088058]</t>
+  </si>
+  <si>
+    <t>[-0.005861188750714064]</t>
+  </si>
+  <si>
+    <t>[0.14034584164619446]</t>
+  </si>
+  <si>
+    <t>[-0.17074264585971832]</t>
+  </si>
+  <si>
+    <t>[0.04136587306857109]</t>
+  </si>
+  <si>
+    <t>[0.01188745629042387]</t>
+  </si>
+  <si>
+    <t>[0.0935911312699318]</t>
+  </si>
+  <si>
+    <t>[0.1619022935628891]</t>
+  </si>
+  <si>
+    <t>[0.1733485609292984]</t>
+  </si>
+  <si>
+    <t>[0.24982759356498718]</t>
+  </si>
+  <si>
+    <t>[-0.1380477249622345]</t>
+  </si>
+  <si>
+    <t>[0.09384744614362717]</t>
+  </si>
+  <si>
+    <t>[-0.10309450328350067]</t>
+  </si>
+  <si>
+    <t>[0.023850226774811745]</t>
+  </si>
+  <si>
+    <t>[0.016300708055496216]</t>
+  </si>
+  <si>
+    <t>[-0.012837412767112255]</t>
+  </si>
+  <si>
+    <t>[0.08710169047117233]</t>
+  </si>
+  <si>
+    <t>[0.02380729652941227]</t>
+  </si>
+  <si>
+    <t>[0.2974622845649719]</t>
+  </si>
+  <si>
+    <t>[-0.03760721907019615]</t>
+  </si>
+  <si>
+    <t>[-0.13954031467437744]</t>
+  </si>
+  <si>
+    <t>[-0.17259494960308075]</t>
+  </si>
+  <si>
+    <t>[-0.05114644765853882]</t>
+  </si>
+  <si>
+    <t>[0.006658457685261965]</t>
+  </si>
+  <si>
+    <t>[0.1513020545244217]</t>
+  </si>
+  <si>
+    <t>[0.05194741487503052]</t>
+  </si>
+  <si>
+    <t>[0.06156494468450546]</t>
+  </si>
+  <si>
+    <t>[0.1303134709596634]</t>
+  </si>
+  <si>
+    <t>[0.20863912999629974]</t>
+  </si>
+  <si>
+    <t>[0.1806112676858902]</t>
+  </si>
+  <si>
+    <t>[-0.24769088625907898]</t>
+  </si>
+  <si>
+    <t>[0.040238894522190094]</t>
+  </si>
+  <si>
+    <t>[0.11491608619689941]</t>
+  </si>
+  <si>
+    <t>[-0.1115618348121643]</t>
+  </si>
+  <si>
+    <t>[0.02369013987481594]</t>
+  </si>
+  <si>
+    <t>[0.10455664992332458]</t>
+  </si>
+  <si>
+    <t>[-0.053795475512742996]</t>
+  </si>
+  <si>
+    <t>[0.23953944444656372]</t>
+  </si>
+  <si>
+    <t>[0.14235100150108337]</t>
+  </si>
+  <si>
+    <t>[0.11704036593437195]</t>
+  </si>
+  <si>
+    <t>[0.02169059030711651]</t>
+  </si>
+  <si>
+    <t>[-0.015673864632844925]</t>
+  </si>
+  <si>
+    <t>[0.04490838572382927]</t>
+  </si>
+  <si>
+    <t>[0.16610945761203766]</t>
+  </si>
+  <si>
+    <t>[-0.12571696937084198]</t>
+  </si>
+  <si>
+    <t>[-0.00640749279409647]</t>
+  </si>
+  <si>
+    <t>[-0.16013751924037933]</t>
+  </si>
+  <si>
+    <t>[-0.03597568720579147]</t>
+  </si>
+  <si>
+    <t>[0.03872140496969223]</t>
+  </si>
+  <si>
+    <t>[-0.2273719310760498]</t>
+  </si>
+  <si>
+    <t>[-0.09489686042070389]</t>
+  </si>
+  <si>
+    <t>[0.09427174180746078]</t>
+  </si>
+  <si>
+    <t>[0.1853720247745514]</t>
+  </si>
+  <si>
+    <t>[0.17731767892837524]</t>
+  </si>
+  <si>
+    <t>[0.16991622745990753]</t>
+  </si>
+  <si>
+    <t>[-0.12351492047309875]</t>
+  </si>
+  <si>
+    <t>[-0.0405166819691658]</t>
+  </si>
+  <si>
+    <t>[-0.02916930429637432]</t>
+  </si>
+  <si>
+    <t>[0.20096011459827423]</t>
+  </si>
+  <si>
+    <t>[0.12118719518184662]</t>
+  </si>
+  <si>
+    <t>[0.22644062340259552]</t>
+  </si>
+  <si>
+    <t>[-0.04416007176041603]</t>
+  </si>
+  <si>
+    <t>[0.03864159807562828]</t>
+  </si>
+  <si>
+    <t>[-0.12314774841070175]</t>
+  </si>
+  <si>
+    <t>[-0.02545172907412052]</t>
+  </si>
+  <si>
+    <t>[0.17694637179374695]</t>
+  </si>
+  <si>
+    <t>[-0.17499691247940063]</t>
+  </si>
+  <si>
+    <t>[0.2092398852109909]</t>
+  </si>
+  <si>
+    <t>[-0.03206248581409454]</t>
+  </si>
+  <si>
+    <t>[-0.18673500418663025]</t>
+  </si>
+  <si>
+    <t>[0.09357795864343643]</t>
+  </si>
+  <si>
+    <t>[-0.1830754578113556]</t>
+  </si>
+  <si>
+    <t>[0.08563372492790222]</t>
+  </si>
+  <si>
+    <t>[-0.2639889419078827]</t>
+  </si>
+  <si>
+    <t>[-0.2267189472913742]</t>
+  </si>
+  <si>
+    <t>[0.0036486845929175615]</t>
+  </si>
+  <si>
+    <t>[-0.12489748001098633]</t>
+  </si>
+  <si>
+    <t>[-0.1145009770989418]</t>
+  </si>
+  <si>
+    <t>[0.16584719717502594]</t>
+  </si>
+  <si>
+    <t>[0.3702761232852936]</t>
+  </si>
+  <si>
+    <t>[-0.16397595405578613]</t>
+  </si>
+  <si>
+    <t>[0.07504714280366898]</t>
+  </si>
+  <si>
+    <t>[0.19395923614501953]</t>
+  </si>
+  <si>
+    <t>[0.16055317223072052]</t>
+  </si>
+  <si>
+    <t>[-0.14722523093223572]</t>
+  </si>
+  <si>
+    <t>[0.06495651602745056]</t>
+  </si>
+  <si>
+    <t>[0.03847082704305649]</t>
+  </si>
+  <si>
+    <t>[-0.08301998674869537]</t>
+  </si>
+  <si>
+    <t>[0.00595891522243619]</t>
+  </si>
+  <si>
+    <t>[-0.29668793082237244]</t>
+  </si>
+  <si>
+    <t>[-0.010851455852389336]</t>
+  </si>
+  <si>
+    <t>[0.10830719023942947]</t>
+  </si>
+  <si>
+    <t>[-0.08229916542768478]</t>
+  </si>
+  <si>
+    <t>[-0.008182459510862827]</t>
+  </si>
+  <si>
+    <t>[-0.054050326347351074]</t>
+  </si>
+  <si>
+    <t>[0.13928277790546417]</t>
+  </si>
+  <si>
+    <t>[-0.051887452602386475]</t>
+  </si>
+  <si>
+    <t>[0.3275444209575653]</t>
+  </si>
+  <si>
+    <t>[0.17492321133613586]</t>
+  </si>
+  <si>
+    <t>[0.1994241178035736]</t>
+  </si>
+  <si>
+    <t>[-0.18420055508613586]</t>
+  </si>
+  <si>
+    <t>[0.3030664324760437]</t>
+  </si>
+  <si>
+    <t>[0.1726568341255188]</t>
+  </si>
+  <si>
+    <t>[-0.04172879084944725]</t>
+  </si>
+  <si>
+    <t>[-0.05923457816243172]</t>
+  </si>
+  <si>
+    <t>[0.028170861303806305]</t>
+  </si>
+  <si>
+    <t>[0.1297404021024704]</t>
+  </si>
+  <si>
+    <t>[0.15158048272132874]</t>
+  </si>
+  <si>
+    <t>[-0.06474271416664124]</t>
+  </si>
+  <si>
+    <t>[-0.23872244358062744]</t>
+  </si>
+  <si>
+    <t>[-0.0658603236079216]</t>
+  </si>
+  <si>
+    <t>[-0.31365931034088135]</t>
+  </si>
+  <si>
+    <t>[-0.07170315831899643]</t>
+  </si>
+  <si>
+    <t>[-0.1980026662349701]</t>
+  </si>
+  <si>
+    <t>[-0.019420256838202477]</t>
+  </si>
+  <si>
+    <t>[-0.001081298803910613]</t>
+  </si>
+  <si>
+    <t>[0.16928160190582275]</t>
+  </si>
+  <si>
+    <t>[-0.08355850726366043]</t>
+  </si>
+  <si>
+    <t>[0.01710924133658409]</t>
+  </si>
+  <si>
+    <t>[-0.09380825608968735]</t>
+  </si>
+  <si>
+    <t>[0.006738276220858097]</t>
+  </si>
+  <si>
+    <t>[-0.008553670719265938]</t>
+  </si>
+  <si>
+    <t>[0.12784795463085175]</t>
+  </si>
+  <si>
+    <t>[-0.0008364076493307948]</t>
+  </si>
+  <si>
+    <t>[-0.12655001878738403]</t>
+  </si>
+  <si>
+    <t>[-0.06239338219165802]</t>
+  </si>
+  <si>
+    <t>[0.11272255331277847]</t>
+  </si>
+  <si>
+    <t>[0.0518878698348999]</t>
+  </si>
+  <si>
+    <t>[-0.026025675237178802]</t>
+  </si>
+  <si>
+    <t>[0.17595802247524261]</t>
+  </si>
+  <si>
+    <t>[-0.15166093409061432]</t>
+  </si>
+  <si>
+    <t>[0.1253892034292221]</t>
+  </si>
+  <si>
+    <t>[-0.1371084600687027]</t>
+  </si>
+  <si>
+    <t>[0.05518046393990517]</t>
+  </si>
+  <si>
+    <t>[0.23481853306293488]</t>
+  </si>
+  <si>
+    <t>[0.048552006483078]</t>
+  </si>
+  <si>
+    <t>[0.02532767876982689]</t>
+  </si>
+  <si>
+    <t>[0.1435779184103012]</t>
+  </si>
+  <si>
+    <t>[-0.1917022168636322]</t>
+  </si>
+  <si>
+    <t>[0.09152282774448395]</t>
+  </si>
+  <si>
+    <t>[-0.2256031632423401]</t>
+  </si>
+  <si>
+    <t>[0.30217286944389343]</t>
+  </si>
+  <si>
+    <t>[0.21128670871257782]</t>
+  </si>
+  <si>
+    <t>[-0.15600919723510742]</t>
+  </si>
+  <si>
+    <t>[-0.16891901195049286]</t>
+  </si>
+  <si>
+    <t>[-0.023366792127490044]</t>
+  </si>
+  <si>
+    <t>[0.0945986807346344]</t>
+  </si>
+  <si>
+    <t>[0.060088396072387695]</t>
+  </si>
+  <si>
+    <t>[0.007536765653640032]</t>
+  </si>
+  <si>
+    <t>[0.07210464775562286]</t>
+  </si>
+  <si>
+    <t>[0.12387485057115555]</t>
+  </si>
+  <si>
+    <t>[0.15461444854736328]</t>
+  </si>
+  <si>
+    <t>[0.26103368401527405]</t>
+  </si>
+  <si>
+    <t>[-0.11354073137044907]</t>
+  </si>
+  <si>
+    <t>[0.11272399127483368]</t>
+  </si>
+  <si>
+    <t>[0.07419899851083755]</t>
+  </si>
+  <si>
+    <t>[-0.07767320424318314]</t>
+  </si>
+  <si>
+    <t>[0.08333349227905273]</t>
+  </si>
+  <si>
+    <t>[0.10688398778438568]</t>
+  </si>
+  <si>
+    <t>[-0.07647733390331268]</t>
+  </si>
+  <si>
+    <t>[0.15029418468475342]</t>
+  </si>
+  <si>
+    <t>[0.05263128876686096]</t>
+  </si>
+  <si>
+    <t>[0.13725721836090088]</t>
+  </si>
+  <si>
+    <t>[0.08335360884666443]</t>
+  </si>
+  <si>
+    <t>[0.2701946794986725]</t>
+  </si>
+  <si>
+    <t>[0.12033461034297943]</t>
+  </si>
+  <si>
+    <t>[-0.16071033477783203]</t>
+  </si>
+  <si>
+    <t>[-0.282434344291687]</t>
+  </si>
+  <si>
+    <t>[-0.1487295776605606]</t>
+  </si>
+  <si>
+    <t>[0.024888502433896065]</t>
+  </si>
+  <si>
+    <t>[0.15885287523269653]</t>
+  </si>
+  <si>
+    <t>[-0.08748553693294525]</t>
+  </si>
+  <si>
+    <t>[0.0690220296382904]</t>
+  </si>
+  <si>
+    <t>[0.06785324215888977]</t>
+  </si>
+  <si>
+    <t>[-0.004175305366516113]</t>
+  </si>
+  <si>
+    <t>[-0.06416183710098267]</t>
+  </si>
+  <si>
+    <t>[0.21852020919322968]</t>
+  </si>
+  <si>
+    <t>[0.04649282246828079]</t>
+  </si>
+  <si>
+    <t>[-0.09089446812868118]</t>
+  </si>
+  <si>
+    <t>[0.1380833089351654]</t>
+  </si>
+  <si>
+    <t>[-0.2813889682292938]</t>
+  </si>
+  <si>
+    <t>[-0.17088693380355835]</t>
+  </si>
+  <si>
+    <t>[0.012080361135303974]</t>
+  </si>
+  <si>
+    <t>[0.20916534960269928]</t>
+  </si>
+  <si>
+    <t>[-0.06769950687885284]</t>
+  </si>
+  <si>
+    <t>[-0.001199332531541586]</t>
+  </si>
+  <si>
+    <t>[-0.028007162734866142]</t>
+  </si>
+  <si>
+    <t>[0.105538010597229]</t>
+  </si>
+  <si>
+    <t>[0.14311568439006805]</t>
+  </si>
+  <si>
+    <t>[-0.02615993469953537]</t>
+  </si>
+  <si>
+    <t>[-0.04489617794752121]</t>
+  </si>
+  <si>
+    <t>[0.28532740473747253]</t>
+  </si>
+  <si>
+    <t>[0.09522319585084915]</t>
+  </si>
+  <si>
+    <t>[-0.016718409955501556]</t>
+  </si>
+  <si>
+    <t>[0.12384204566478729]</t>
+  </si>
+  <si>
+    <t>[0.036316245794296265]</t>
+  </si>
+  <si>
+    <t>[-0.016420742496848106]</t>
+  </si>
+  <si>
+    <t>[-0.01382188219577074]</t>
+  </si>
+  <si>
+    <t>[0.2559541165828705]</t>
+  </si>
+  <si>
+    <t>[-0.08157791197299957]</t>
+  </si>
+  <si>
+    <t>[-0.19392751157283783]</t>
+  </si>
+  <si>
+    <t>[-0.1607530266046524]</t>
+  </si>
+  <si>
+    <t>[0.2026893049478531]</t>
+  </si>
+  <si>
+    <t>[-0.18177035450935364]</t>
+  </si>
+  <si>
+    <t>[0.2097974419593811]</t>
+  </si>
+  <si>
+    <t>[0.15337182581424713]</t>
+  </si>
+  <si>
+    <t>[0.07202111184597015]</t>
+  </si>
+  <si>
+    <t>[0.023643067106604576]</t>
+  </si>
+  <si>
+    <t>[-0.149680033326149]</t>
+  </si>
+  <si>
+    <t>[0.06074687838554382]</t>
+  </si>
+  <si>
+    <t>[-0.08175802230834961]</t>
+  </si>
+  <si>
+    <t>[0.2804644703865051]</t>
+  </si>
+  <si>
+    <t>[0.19566139578819275]</t>
+  </si>
+  <si>
+    <t>[0.1480712592601776]</t>
+  </si>
+  <si>
+    <t>[-0.34745368361473083]</t>
+  </si>
+  <si>
+    <t>[0.09718158096075058]</t>
+  </si>
+  <si>
+    <t>[-0.18130764365196228]</t>
+  </si>
+  <si>
+    <t>[-0.06559853255748749]</t>
+  </si>
+  <si>
+    <t>[0.15916375815868378]</t>
+  </si>
+  <si>
+    <t>[-0.056584905833005905]</t>
+  </si>
+  <si>
+    <t>[-0.011215575970709324]</t>
+  </si>
+  <si>
+    <t>[-0.0629941076040268]</t>
+  </si>
+  <si>
+    <t>[0.01814563386142254]</t>
+  </si>
+  <si>
+    <t>[0.10410697758197784]</t>
+  </si>
+  <si>
+    <t>[-0.0883224606513977]</t>
+  </si>
+  <si>
+    <t>[-0.17520453035831451]</t>
+  </si>
+  <si>
+    <t>[0.14977003633975983]</t>
+  </si>
+  <si>
+    <t>[-0.1562085896730423]</t>
+  </si>
+  <si>
+    <t>[-0.20851260423660278]</t>
+  </si>
+  <si>
+    <t>[-0.03265124559402466]</t>
+  </si>
+  <si>
+    <t>[-0.21032826602458954]</t>
+  </si>
+  <si>
+    <t>[0.060871224850416183]</t>
+  </si>
+  <si>
+    <t>[-0.09329927712678909]</t>
+  </si>
+  <si>
+    <t>[0.008514298126101494]</t>
+  </si>
+  <si>
+    <t>[0.01627403125166893]</t>
+  </si>
+  <si>
+    <t>[-0.16616259515285492]</t>
+  </si>
+  <si>
+    <t>[0.12464892119169235]</t>
+  </si>
+  <si>
+    <t>[0.025387665256857872]</t>
+  </si>
+  <si>
+    <t>[-0.14703400433063507]</t>
+  </si>
+  <si>
+    <t>[-0.26997020840644836]</t>
+  </si>
+  <si>
+    <t>[-0.13185128569602966]</t>
+  </si>
+  <si>
+    <t>[-0.15736700594425201]</t>
+  </si>
+  <si>
+    <t>[0.06083368882536888]</t>
+  </si>
+  <si>
+    <t>[-0.1337352842092514]</t>
+  </si>
+  <si>
+    <t>[-0.09364208579063416]</t>
+  </si>
+  <si>
+    <t>[0.08174984157085419]</t>
+  </si>
+  <si>
+    <t>[-0.0733097493648529]</t>
+  </si>
+  <si>
+    <t>[0.12542207539081573]</t>
+  </si>
+  <si>
+    <t>[0.09507641196250916]</t>
+  </si>
+  <si>
+    <t>[-0.11920346319675446]</t>
+  </si>
+  <si>
+    <t>[0.003844744060188532]</t>
+  </si>
+  <si>
+    <t>[0.2714064419269562]</t>
+  </si>
+  <si>
+    <t>[-0.3271075487136841]</t>
+  </si>
+  <si>
+    <t>[0.31261563301086426]</t>
+  </si>
+  <si>
+    <t>[0.22101716697216034]</t>
+  </si>
+  <si>
+    <t>[-0.12378531694412231]</t>
+  </si>
+  <si>
+    <t>[-0.11598405241966248]</t>
+  </si>
+  <si>
+    <t>[-0.09445220232009888]</t>
+  </si>
+  <si>
+    <t>[-0.03276561200618744]</t>
+  </si>
+  <si>
+    <t>[-0.1931801587343216]</t>
+  </si>
+  <si>
+    <t>[0.10381603986024857]</t>
+  </si>
+  <si>
+    <t>[0.15780113637447357]</t>
+  </si>
+  <si>
+    <t>[0.1046539917588234]</t>
+  </si>
+  <si>
+    <t>[0.04493940249085426]</t>
+  </si>
+  <si>
+    <t>[0.06157341226935387]</t>
+  </si>
+  <si>
+    <t>[0.319131463766098]</t>
+  </si>
+  <si>
+    <t>[-0.05108083412051201]</t>
+  </si>
+  <si>
+    <t>[0.11302980035543442]</t>
+  </si>
+  <si>
+    <t>[0.06165086850523949]</t>
+  </si>
+  <si>
+    <t>[0.18419256806373596]</t>
+  </si>
+  <si>
+    <t>[0.010453948751091957]</t>
+  </si>
+  <si>
+    <t>[0.14659889042377472]</t>
+  </si>
+  <si>
+    <t>[-0.05630055069923401]</t>
+  </si>
+  <si>
+    <t>[-0.07880823314189911]</t>
+  </si>
+  <si>
+    <t>[-0.06940407305955887]</t>
+  </si>
+  <si>
+    <t>[0.16879846155643463]</t>
+  </si>
+  <si>
+    <t>[-0.09316650778055191]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -2575,172 +2575,172 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.1362074315547943]</t>
-  </si>
-  <si>
-    <t>[1.0824217796325684]</t>
-  </si>
-  <si>
-    <t>[-0.17117954790592194]</t>
-  </si>
-  <si>
-    <t>[-0.057511329650878906]</t>
-  </si>
-  <si>
-    <t>[0.13761678338050842]</t>
-  </si>
-  <si>
-    <t>[1.0433218479156494]</t>
-  </si>
-  <si>
-    <t>[-0.12428037077188492]</t>
-  </si>
-  <si>
-    <t>[0.06137934699654579]</t>
-  </si>
-  <si>
-    <t>[0.10030660778284073]</t>
-  </si>
-  <si>
-    <t>[1.0763777494430542]</t>
-  </si>
-  <si>
-    <t>[-0.10690365731716156]</t>
-  </si>
-  <si>
-    <t>[-0.10332728922367096]</t>
-  </si>
-  <si>
-    <t>[-0.16371691226959229]</t>
-  </si>
-  <si>
-    <t>[1.066534161567688]</t>
-  </si>
-  <si>
-    <t>[0.1400248259305954]</t>
-  </si>
-  <si>
-    <t>[0.028692839667201042]</t>
-  </si>
-  <si>
-    <t>[0.18702587485313416]</t>
-  </si>
-  <si>
-    <t>[1.102919101715088]</t>
-  </si>
-  <si>
-    <t>[0.1791272759437561]</t>
-  </si>
-  <si>
-    <t>[0.06050814315676689]</t>
-  </si>
-  <si>
-    <t>[0.15713654458522797]</t>
-  </si>
-  <si>
-    <t>[1.0582408905029297]</t>
-  </si>
-  <si>
-    <t>[-0.13930220901966095]</t>
-  </si>
-  <si>
-    <t>[-0.05637146532535553]</t>
-  </si>
-  <si>
-    <t>[-0.12603288888931274]</t>
-  </si>
-  <si>
-    <t>[1.0485875606536865]</t>
-  </si>
-  <si>
-    <t>[0.14049208164215088]</t>
-  </si>
-  <si>
-    <t>[-0.02010214328765869]</t>
-  </si>
-  <si>
-    <t>[0.14671918749809265]</t>
-  </si>
-  <si>
-    <t>[1.0613428354263306]</t>
-  </si>
-  <si>
-    <t>[0.1336696445941925]</t>
-  </si>
-  <si>
-    <t>[0.022828364744782448]</t>
-  </si>
-  <si>
-    <t>[0.1653955727815628]</t>
-  </si>
-  <si>
-    <t>[1.1088244915008545]</t>
-  </si>
-  <si>
-    <t>[-0.2016189843416214]</t>
-  </si>
-  <si>
-    <t>[-0.08013949543237686]</t>
-  </si>
-  <si>
-    <t>[-0.1719195395708084]</t>
-  </si>
-  <si>
-    <t>[1.1220029592514038]</t>
-  </si>
-  <si>
-    <t>[0.16723790764808655]</t>
-  </si>
-  <si>
-    <t>[0.13224034011363983]</t>
-  </si>
-  <si>
-    <t>[0.12966810166835785]</t>
-  </si>
-  <si>
-    <t>[1.1220982074737549]</t>
-  </si>
-  <si>
-    <t>[0.1308533251285553]</t>
-  </si>
-  <si>
-    <t>[0.16855236887931824]</t>
-  </si>
-  <si>
-    <t>[0.1141427755355835]</t>
-  </si>
-  <si>
-    <t>[1.0171223878860474]</t>
-  </si>
-  <si>
-    <t>[0.08379433304071426]</t>
-  </si>
-  <si>
-    <t>[-0.014120576903223991]</t>
-  </si>
-  <si>
-    <t>[0.15069688856601715]</t>
-  </si>
-  <si>
-    <t>[1.0730074644088745]</t>
-  </si>
-  <si>
-    <t>[-0.15795257687568665]</t>
-  </si>
-  <si>
-    <t>[0.05610562860965729]</t>
-  </si>
-  <si>
-    <t>[-0.14994685351848602]</t>
-  </si>
-  <si>
-    <t>[1.116170883178711]</t>
-  </si>
-  <si>
-    <t>[0.14419172704219818]</t>
-  </si>
-  <si>
-    <t>[-0.1491851657629013]</t>
+    <t>[0.0934838354587555]</t>
+  </si>
+  <si>
+    <t>[1.0655872821807861]</t>
+  </si>
+  <si>
+    <t>[-0.08396131545305252]</t>
+  </si>
+  <si>
+    <t>[-0.11433947086334229]</t>
+  </si>
+  <si>
+    <t>[-0.11761494725942612]</t>
+  </si>
+  <si>
+    <t>[1.0475982427597046]</t>
+  </si>
+  <si>
+    <t>[0.13170869648456573]</t>
+  </si>
+  <si>
+    <t>[0.04984414950013161]</t>
+  </si>
+  <si>
+    <t>[-0.171609565615654]</t>
+  </si>
+  <si>
+    <t>[1.079314112663269]</t>
+  </si>
+  <si>
+    <t>[-0.18064935505390167]</t>
+  </si>
+  <si>
+    <t>[-0.03986281156539917]</t>
+  </si>
+  <si>
+    <t>[0.1503092497587204]</t>
+  </si>
+  <si>
+    <t>[1.1010026931762695]</t>
+  </si>
+  <si>
+    <t>[0.1355389505624771]</t>
+  </si>
+  <si>
+    <t>[-0.10846354812383652]</t>
+  </si>
+  <si>
+    <t>[-0.21347732841968536]</t>
+  </si>
+  <si>
+    <t>[1.1973612308502197]</t>
+  </si>
+  <si>
+    <t>[0.20498843491077423]</t>
+  </si>
+  <si>
+    <t>[-0.01368644181638956]</t>
+  </si>
+  <si>
+    <t>[-0.14478686451911926]</t>
+  </si>
+  <si>
+    <t>[1.0533604621887207]</t>
+  </si>
+  <si>
+    <t>[-0.13253051042556763]</t>
+  </si>
+  <si>
+    <t>[-0.062205780297517776]</t>
+  </si>
+  <si>
+    <t>[0.1737038940191269]</t>
+  </si>
+  <si>
+    <t>[1.1130883693695068]</t>
+  </si>
+  <si>
+    <t>[0.2040172964334488]</t>
+  </si>
+  <si>
+    <t>[0.022371675819158554]</t>
+  </si>
+  <si>
+    <t>[-0.11469820141792297]</t>
+  </si>
+  <si>
+    <t>[1.08747136592865]</t>
+  </si>
+  <si>
+    <t>[0.11180980503559113]</t>
+  </si>
+  <si>
+    <t>[-0.11803244799375534]</t>
+  </si>
+  <si>
+    <t>[0.13716889917850494]</t>
+  </si>
+  <si>
+    <t>[1.0624818801879883]</t>
+  </si>
+  <si>
+    <t>[-0.11668891459703445]</t>
+  </si>
+  <si>
+    <t>[-0.062460508197546005]</t>
+  </si>
+  <si>
+    <t>[-0.11562464386224747]</t>
+  </si>
+  <si>
+    <t>[1.0375314950942993]</t>
+  </si>
+  <si>
+    <t>[-0.1164492592215538]</t>
+  </si>
+  <si>
+    <t>[0.037446387112140656]</t>
+  </si>
+  <si>
+    <t>[0.16340850293636322]</t>
+  </si>
+  <si>
+    <t>[1.0935755968093872]</t>
+  </si>
+  <si>
+    <t>[0.16363345086574554]</t>
+  </si>
+  <si>
+    <t>[0.04658793658018112]</t>
+  </si>
+  <si>
+    <t>[0.17495959997177124]</t>
+  </si>
+  <si>
+    <t>[1.0987340211868286]</t>
+  </si>
+  <si>
+    <t>[0.16006839275360107]</t>
+  </si>
+  <si>
+    <t>[0.09149369597434998]</t>
+  </si>
+  <si>
+    <t>[0.1655322015285492]</t>
+  </si>
+  <si>
+    <t>[1.090409755706787]</t>
+  </si>
+  <si>
+    <t>[0.16575054824352264]</t>
+  </si>
+  <si>
+    <t>[0.049590058624744415]</t>
+  </si>
+  <si>
+    <t>[-0.18068328499794006]</t>
+  </si>
+  <si>
+    <t>[1.0972018241882324]</t>
+  </si>
+  <si>
+    <t>[0.15486282110214233]</t>
+  </si>
+  <si>
+    <t>[-0.024096017703413963]</t>
   </si>
 </sst>
 </file>
